--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4227,28 +4227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30036.31318892523</v>
+        <v>31014.89300363967</v>
       </c>
       <c r="AB2" t="n">
-        <v>41097.00881370654</v>
+        <v>42435.94488809344</v>
       </c>
       <c r="AC2" t="n">
-        <v>37174.7679725388</v>
+        <v>38385.91786719474</v>
       </c>
       <c r="AD2" t="n">
-        <v>30036313.18892523</v>
+        <v>31014893.00363968</v>
       </c>
       <c r="AE2" t="n">
-        <v>41097008.81370654</v>
+        <v>42435944.88809344</v>
       </c>
       <c r="AF2" t="n">
         <v>8.07988355309614e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>195</v>
+        <v>194.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>37174767.9725388</v>
+        <v>38385917.86719473</v>
       </c>
     </row>
     <row r="3">
@@ -4333,28 +4333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>10112.3341451606</v>
+        <v>10631.02327623272</v>
       </c>
       <c r="AB3" t="n">
-        <v>13836.1417021061</v>
+        <v>14545.83505418849</v>
       </c>
       <c r="AC3" t="n">
-        <v>12515.63975720342</v>
+        <v>13157.60097182391</v>
       </c>
       <c r="AD3" t="n">
-        <v>10112334.1451606</v>
+        <v>10631023.27623272</v>
       </c>
       <c r="AE3" t="n">
-        <v>13836141.70210611</v>
+        <v>14545835.05418849</v>
       </c>
       <c r="AF3" t="n">
         <v>1.526702472759844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>103</v>
+        <v>102.8166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>12515639.75720342</v>
+        <v>13157600.97182391</v>
       </c>
     </row>
     <row r="4">
@@ -4439,28 +4439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>7772.533853047036</v>
+        <v>8212.948979375153</v>
       </c>
       <c r="AB4" t="n">
-        <v>10634.72371773249</v>
+        <v>11237.31912331874</v>
       </c>
       <c r="AC4" t="n">
-        <v>9619.760612040185</v>
+        <v>10164.84515786522</v>
       </c>
       <c r="AD4" t="n">
-        <v>7772533.853047037</v>
+        <v>8212948.979375152</v>
       </c>
       <c r="AE4" t="n">
-        <v>10634723.71773249</v>
+        <v>11237319.12331874</v>
       </c>
       <c r="AF4" t="n">
         <v>1.791888394502487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>88</v>
+        <v>87.59166666666665</v>
       </c>
       <c r="AH4" t="n">
-        <v>9619760.612040184</v>
+        <v>10164845.15786522</v>
       </c>
     </row>
     <row r="5">
@@ -4545,28 +4545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>6846.189737174523</v>
+        <v>7257.137814465106</v>
       </c>
       <c r="AB5" t="n">
-        <v>9367.258830977533</v>
+        <v>9929.536120076178</v>
       </c>
       <c r="AC5" t="n">
-        <v>8473.260795179025</v>
+        <v>8981.875128967207</v>
       </c>
       <c r="AD5" t="n">
-        <v>6846189.737174523</v>
+        <v>7257137.814465106</v>
       </c>
       <c r="AE5" t="n">
-        <v>9367258.830977533</v>
+        <v>9929536.120076178</v>
       </c>
       <c r="AF5" t="n">
         <v>1.932768415428266e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>82</v>
+        <v>81.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>8473260.795179024</v>
+        <v>8981875.128967207</v>
       </c>
     </row>
     <row r="6">
@@ -4651,28 +4651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>6322.82303352694</v>
+        <v>6714.295553503312</v>
       </c>
       <c r="AB6" t="n">
-        <v>8651.165417737466</v>
+        <v>9186.795390117857</v>
       </c>
       <c r="AC6" t="n">
-        <v>7825.510332255198</v>
+        <v>8310.020531832972</v>
       </c>
       <c r="AD6" t="n">
-        <v>6322823.03352694</v>
+        <v>6714295.553503312</v>
       </c>
       <c r="AE6" t="n">
-        <v>8651165.417737465</v>
+        <v>9186795.390117858</v>
       </c>
       <c r="AF6" t="n">
         <v>2.02053591509593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>78</v>
+        <v>77.67083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>7825510.332255198</v>
+        <v>8310020.531832972</v>
       </c>
     </row>
     <row r="7">
@@ -4757,28 +4757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5974.386518696543</v>
+        <v>6355.969032176081</v>
       </c>
       <c r="AB7" t="n">
-        <v>8174.419206212351</v>
+        <v>8696.51723538748</v>
       </c>
       <c r="AC7" t="n">
-        <v>7394.264110040547</v>
+        <v>7866.53383608037</v>
       </c>
       <c r="AD7" t="n">
-        <v>5974386.518696543</v>
+        <v>6355969.032176081</v>
       </c>
       <c r="AE7" t="n">
-        <v>8174419.206212351</v>
+        <v>8696517.23538748</v>
       </c>
       <c r="AF7" t="n">
         <v>2.081935496408502e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>76</v>
+        <v>75.3875</v>
       </c>
       <c r="AH7" t="n">
-        <v>7394264.110040547</v>
+        <v>7866533.83608037</v>
       </c>
     </row>
     <row r="8">
@@ -4863,28 +4863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>5716.19642459081</v>
+        <v>6088.091902026486</v>
       </c>
       <c r="AB8" t="n">
-        <v>7821.152128913818</v>
+        <v>8329.995928011866</v>
       </c>
       <c r="AC8" t="n">
-        <v>7074.712346785945</v>
+        <v>7534.992807864812</v>
       </c>
       <c r="AD8" t="n">
-        <v>5716196.42459081</v>
+        <v>6088091.902026487</v>
       </c>
       <c r="AE8" t="n">
-        <v>7821152.128913818</v>
+        <v>8329995.928011866</v>
       </c>
       <c r="AF8" t="n">
         <v>2.126007588516299e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>74</v>
+        <v>73.82916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>7074712.346785945</v>
+        <v>7534992.807864812</v>
       </c>
     </row>
     <row r="9">
@@ -4969,28 +4969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>5513.315188357367</v>
+        <v>5885.176500374262</v>
       </c>
       <c r="AB9" t="n">
-        <v>7543.561071010758</v>
+        <v>8052.358123475557</v>
       </c>
       <c r="AC9" t="n">
-        <v>6823.614189847664</v>
+        <v>7283.852365726351</v>
       </c>
       <c r="AD9" t="n">
-        <v>5513315.188357367</v>
+        <v>5885176.500374262</v>
       </c>
       <c r="AE9" t="n">
-        <v>7543561.071010758</v>
+        <v>8052358.123475557</v>
       </c>
       <c r="AF9" t="n">
         <v>2.1587791441862e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.70833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>6823614.189847664</v>
+        <v>7283852.365726352</v>
       </c>
     </row>
     <row r="10">
@@ -5075,28 +5075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>5340.31261093243</v>
+        <v>5702.419567097758</v>
       </c>
       <c r="AB10" t="n">
-        <v>7306.851312242892</v>
+        <v>7802.302024699768</v>
       </c>
       <c r="AC10" t="n">
-        <v>6609.495678232381</v>
+        <v>7057.661270061794</v>
       </c>
       <c r="AD10" t="n">
-        <v>5340312.61093243</v>
+        <v>5702419.567097758</v>
       </c>
       <c r="AE10" t="n">
-        <v>7306851.312242893</v>
+        <v>7802302.024699768</v>
       </c>
       <c r="AF10" t="n">
         <v>2.185523747089222e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>6609495.678232381</v>
+        <v>7057661.270061795</v>
       </c>
     </row>
     <row r="11">
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>5187.547150055729</v>
+        <v>5539.832430561783</v>
       </c>
       <c r="AB11" t="n">
-        <v>7097.830869134897</v>
+        <v>7579.843131653005</v>
       </c>
       <c r="AC11" t="n">
-        <v>6420.423852852587</v>
+        <v>6856.433541544407</v>
       </c>
       <c r="AD11" t="n">
-        <v>5187547.150055729</v>
+        <v>5539832.430561784</v>
       </c>
       <c r="AE11" t="n">
-        <v>7097830.869134896</v>
+        <v>7579843.131653005</v>
       </c>
       <c r="AF11" t="n">
         <v>2.206994766321225e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.10833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>6420423.852852587</v>
+        <v>6856433.541544408</v>
       </c>
     </row>
     <row r="12">
@@ -5287,28 +5287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>5038.087730883011</v>
+        <v>5390.440331196773</v>
       </c>
       <c r="AB12" t="n">
-        <v>6893.333898138559</v>
+        <v>7375.438270587509</v>
       </c>
       <c r="AC12" t="n">
-        <v>6235.443785754846</v>
+        <v>6671.536793534985</v>
       </c>
       <c r="AD12" t="n">
-        <v>5038087.730883012</v>
+        <v>5390440.331196773</v>
       </c>
       <c r="AE12" t="n">
-        <v>6893333.898138558</v>
+        <v>7375438.270587509</v>
       </c>
       <c r="AF12" t="n">
         <v>2.22620567826565e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.50416666666668</v>
       </c>
       <c r="AH12" t="n">
-        <v>6235443.785754845</v>
+        <v>6671536.793534985</v>
       </c>
     </row>
     <row r="13">
@@ -5393,28 +5393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4938.424749634495</v>
+        <v>5290.675864721769</v>
       </c>
       <c r="AB13" t="n">
-        <v>6756.970610373909</v>
+        <v>7238.936126258771</v>
       </c>
       <c r="AC13" t="n">
-        <v>6112.094818787383</v>
+        <v>6548.062222279024</v>
       </c>
       <c r="AD13" t="n">
-        <v>4938424.749634495</v>
+        <v>5290675.864721769</v>
       </c>
       <c r="AE13" t="n">
-        <v>6756970.610373909</v>
+        <v>7238936.126258771</v>
       </c>
       <c r="AF13" t="n">
         <v>2.238259583799406e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.125</v>
       </c>
       <c r="AH13" t="n">
-        <v>6112094.818787383</v>
+        <v>6548062.222279024</v>
       </c>
     </row>
     <row r="14">
@@ -5499,28 +5499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4898.510727544081</v>
+        <v>5260.549352871847</v>
       </c>
       <c r="AB14" t="n">
-        <v>6702.358484467425</v>
+        <v>7197.715703657803</v>
       </c>
       <c r="AC14" t="n">
-        <v>6062.694797528815</v>
+        <v>6510.775818957869</v>
       </c>
       <c r="AD14" t="n">
-        <v>4898510.72754408</v>
+        <v>5260549.352871847</v>
       </c>
       <c r="AE14" t="n">
-        <v>6702358.484467425</v>
+        <v>7197715.703657803</v>
       </c>
       <c r="AF14" t="n">
         <v>2.242403113826635e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>70</v>
+        <v>69.99583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>6062694.797528815</v>
+        <v>6510775.818957869</v>
       </c>
     </row>
     <row r="15">
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>4908.19122284281</v>
+        <v>5270.229848170576</v>
       </c>
       <c r="AB15" t="n">
-        <v>6715.603765208457</v>
+        <v>7210.960984398836</v>
       </c>
       <c r="AC15" t="n">
-        <v>6074.675967265789</v>
+        <v>6522.756988694845</v>
       </c>
       <c r="AD15" t="n">
-        <v>4908191.22284281</v>
+        <v>5270229.848170576</v>
       </c>
       <c r="AE15" t="n">
-        <v>6715603.765208457</v>
+        <v>7210960.984398836</v>
       </c>
       <c r="AF15" t="n">
         <v>2.243533167470425e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>70</v>
+        <v>69.96249999999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>6074675.967265789</v>
+        <v>6522756.988694845</v>
       </c>
     </row>
   </sheetData>
@@ -5902,28 +5902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>18227.40777633011</v>
+        <v>18992.00033209475</v>
       </c>
       <c r="AB2" t="n">
-        <v>24939.54345605427</v>
+        <v>25985.69272229442</v>
       </c>
       <c r="AC2" t="n">
-        <v>22559.34843147659</v>
+        <v>23505.65468002646</v>
       </c>
       <c r="AD2" t="n">
-        <v>18227407.77633011</v>
+        <v>18992000.33209475</v>
       </c>
       <c r="AE2" t="n">
-        <v>24939543.45605427</v>
+        <v>25985692.72229442</v>
       </c>
       <c r="AF2" t="n">
         <v>1.125202922398464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>153</v>
+        <v>152.6541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>22559348.43147659</v>
+        <v>23505654.68002646</v>
       </c>
     </row>
     <row r="3">
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7987.750991569633</v>
+        <v>8452.281700129557</v>
       </c>
       <c r="AB3" t="n">
-        <v>10929.19330136918</v>
+        <v>11564.78471046939</v>
       </c>
       <c r="AC3" t="n">
-        <v>9886.126431905224</v>
+        <v>10461.05788897904</v>
       </c>
       <c r="AD3" t="n">
-        <v>7987750.991569633</v>
+        <v>8452281.700129557</v>
       </c>
       <c r="AE3" t="n">
-        <v>10929193.30136918</v>
+        <v>11564784.71046939</v>
       </c>
       <c r="AF3" t="n">
         <v>1.824230085910477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>95</v>
+        <v>94.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>9886126.431905225</v>
+        <v>10461057.88897904</v>
       </c>
     </row>
     <row r="4">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6390.806485294865</v>
+        <v>6806.967602493171</v>
       </c>
       <c r="AB4" t="n">
-        <v>8744.183375664563</v>
+        <v>9313.593375948045</v>
       </c>
       <c r="AC4" t="n">
-        <v>7909.650786829253</v>
+        <v>8424.717095857613</v>
       </c>
       <c r="AD4" t="n">
-        <v>6390806.485294865</v>
+        <v>6806967.602493172</v>
       </c>
       <c r="AE4" t="n">
-        <v>8744183.375664562</v>
+        <v>9313593.375948045</v>
       </c>
       <c r="AF4" t="n">
         <v>2.078122027374746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>83</v>
+        <v>82.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>7909650.786829253</v>
+        <v>8424717.095857613</v>
       </c>
     </row>
     <row r="5">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5711.080299026705</v>
+        <v>6098.233934193468</v>
       </c>
       <c r="AB5" t="n">
-        <v>7814.152020209479</v>
+        <v>8343.872703857613</v>
       </c>
       <c r="AC5" t="n">
-        <v>7068.380318631635</v>
+        <v>7547.545203700016</v>
       </c>
       <c r="AD5" t="n">
-        <v>5711080.299026704</v>
+        <v>6098233.934193468</v>
       </c>
       <c r="AE5" t="n">
-        <v>7814152.020209479</v>
+        <v>8343872.703857612</v>
       </c>
       <c r="AF5" t="n">
         <v>2.210426107261158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>78</v>
+        <v>77.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>7068380.318631634</v>
+        <v>7547545.203700016</v>
       </c>
     </row>
     <row r="6">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5305.255946207272</v>
+        <v>5682.694866805147</v>
       </c>
       <c r="AB6" t="n">
-        <v>7258.885236975035</v>
+        <v>7775.313819567054</v>
       </c>
       <c r="AC6" t="n">
-        <v>6566.10741786728</v>
+        <v>7033.248781348765</v>
       </c>
       <c r="AD6" t="n">
-        <v>5305255.946207272</v>
+        <v>5682694.866805147</v>
       </c>
       <c r="AE6" t="n">
-        <v>7258885.236975035</v>
+        <v>7775313.819567054</v>
       </c>
       <c r="AF6" t="n">
         <v>2.292858555788518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.90416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>6566107.41786728</v>
+        <v>7033248.781348765</v>
       </c>
     </row>
     <row r="7">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5022.119396172921</v>
+        <v>5380.198229500437</v>
       </c>
       <c r="AB7" t="n">
-        <v>6871.485318115005</v>
+        <v>7361.424575196946</v>
       </c>
       <c r="AC7" t="n">
-        <v>6215.680403544064</v>
+        <v>6658.860545564153</v>
       </c>
       <c r="AD7" t="n">
-        <v>5022119.396172921</v>
+        <v>5380198.229500437</v>
       </c>
       <c r="AE7" t="n">
-        <v>6871485.318115004</v>
+        <v>7361424.575196946</v>
       </c>
       <c r="AF7" t="n">
         <v>2.34932478302976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.09583333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>6215680.403544064</v>
+        <v>6658860.545564152</v>
       </c>
     </row>
     <row r="8">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4782.321176736109</v>
+        <v>5140.433164452548</v>
       </c>
       <c r="AB8" t="n">
-        <v>6543.382815130737</v>
+        <v>7033.367435510271</v>
       </c>
       <c r="AC8" t="n">
-        <v>5918.891542949871</v>
+        <v>6362.1127188581</v>
       </c>
       <c r="AD8" t="n">
-        <v>4782321.176736109</v>
+        <v>5140433.164452548</v>
       </c>
       <c r="AE8" t="n">
-        <v>6543382.815130737</v>
+        <v>7033367.435510271</v>
       </c>
       <c r="AF8" t="n">
         <v>2.390953169536076e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.825</v>
       </c>
       <c r="AH8" t="n">
-        <v>5918891.542949871</v>
+        <v>6362112.7188581</v>
       </c>
     </row>
     <row r="9">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4587.44496366407</v>
+        <v>4945.522785961728</v>
       </c>
       <c r="AB9" t="n">
-        <v>6276.744583073804</v>
+        <v>6766.682456820093</v>
       </c>
       <c r="AC9" t="n">
-        <v>5677.700889531356</v>
+        <v>6120.879780239403</v>
       </c>
       <c r="AD9" t="n">
-        <v>4587444.96366407</v>
+        <v>4945522.785961728</v>
       </c>
       <c r="AE9" t="n">
-        <v>6276744.583073804</v>
+        <v>6766682.456820093</v>
       </c>
       <c r="AF9" t="n">
         <v>2.4214531754912e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.92083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>5677700.889531355</v>
+        <v>6120879.780239403</v>
       </c>
     </row>
     <row r="10">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4501.69425896997</v>
+        <v>4850.159862955081</v>
       </c>
       <c r="AB10" t="n">
-        <v>6159.416685857234</v>
+        <v>6636.202698447153</v>
       </c>
       <c r="AC10" t="n">
-        <v>5571.5706021544</v>
+        <v>6002.852826876089</v>
       </c>
       <c r="AD10" t="n">
-        <v>4501694.25896997</v>
+        <v>4850159.862955081</v>
       </c>
       <c r="AE10" t="n">
-        <v>6159416.685857235</v>
+        <v>6636202.698447153</v>
       </c>
       <c r="AF10" t="n">
         <v>2.434642367255578e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.53749999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>5571570.6021544</v>
+        <v>6002852.826876089</v>
       </c>
     </row>
     <row r="11">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4508.027302293505</v>
+        <v>4856.391421052131</v>
       </c>
       <c r="AB11" t="n">
-        <v>6168.081835126648</v>
+        <v>6644.728991152477</v>
       </c>
       <c r="AC11" t="n">
-        <v>5579.408761739154</v>
+        <v>6010.565382172344</v>
       </c>
       <c r="AD11" t="n">
-        <v>4508027.302293506</v>
+        <v>4856391.421052131</v>
       </c>
       <c r="AE11" t="n">
-        <v>6168081.835126648</v>
+        <v>6644728.991152477</v>
       </c>
       <c r="AF11" t="n">
         <v>2.436703178468761e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.47499999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>5579408.761739154</v>
+        <v>6010565.382172344</v>
       </c>
     </row>
     <row r="12">
@@ -6962,28 +6962,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4526.127889786852</v>
+        <v>4874.492008545479</v>
       </c>
       <c r="AB12" t="n">
-        <v>6192.847857476609</v>
+        <v>6669.495013502437</v>
       </c>
       <c r="AC12" t="n">
-        <v>5601.811149675365</v>
+        <v>6032.967770108555</v>
       </c>
       <c r="AD12" t="n">
-        <v>4526127.889786853</v>
+        <v>4874492.008545479</v>
       </c>
       <c r="AE12" t="n">
-        <v>6192847.857476609</v>
+        <v>6669495.013502438</v>
       </c>
       <c r="AF12" t="n">
         <v>2.436703178468761e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.47499999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>5601811.149675365</v>
+        <v>6032967.770108555</v>
       </c>
     </row>
   </sheetData>
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6063.208032354997</v>
+        <v>6530.879623084983</v>
       </c>
       <c r="AB2" t="n">
-        <v>8295.948719728483</v>
+        <v>8935.837622379719</v>
       </c>
       <c r="AC2" t="n">
-        <v>7504.19501735444</v>
+        <v>8083.013821226332</v>
       </c>
       <c r="AD2" t="n">
-        <v>6063208.032354997</v>
+        <v>6530879.623084983</v>
       </c>
       <c r="AE2" t="n">
-        <v>8295948.719728483</v>
+        <v>8935837.622379718</v>
       </c>
       <c r="AF2" t="n">
         <v>2.472592697624691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>7504195.01735444</v>
+        <v>8083013.821226331</v>
       </c>
     </row>
     <row r="3">
@@ -7365,28 +7365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3969.772990665071</v>
+        <v>4343.822444190085</v>
       </c>
       <c r="AB3" t="n">
-        <v>5431.618539852269</v>
+        <v>5943.409504062468</v>
       </c>
       <c r="AC3" t="n">
-        <v>4913.232489733064</v>
+        <v>5376.17884262215</v>
       </c>
       <c r="AD3" t="n">
-        <v>3969772.990665071</v>
+        <v>4343822.444190085</v>
       </c>
       <c r="AE3" t="n">
-        <v>5431618.539852269</v>
+        <v>5943409.504062468</v>
       </c>
       <c r="AF3" t="n">
         <v>3.096206118803185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.425</v>
       </c>
       <c r="AH3" t="n">
-        <v>4913232.489733064</v>
+        <v>5376178.84262215</v>
       </c>
     </row>
     <row r="4">
@@ -7471,28 +7471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3553.21909775014</v>
+        <v>3908.659073022186</v>
       </c>
       <c r="AB4" t="n">
-        <v>4861.671126505261</v>
+        <v>5347.999781577509</v>
       </c>
       <c r="AC4" t="n">
-        <v>4397.680057589697</v>
+        <v>4837.594188388386</v>
       </c>
       <c r="AD4" t="n">
-        <v>3553219.097750139</v>
+        <v>3908659.073022186</v>
       </c>
       <c r="AE4" t="n">
-        <v>4861671.126505261</v>
+        <v>5347999.781577509</v>
       </c>
       <c r="AF4" t="n">
         <v>3.244055426222809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4397680.057589697</v>
+        <v>4837594.188388386</v>
       </c>
     </row>
     <row r="5">
@@ -7577,28 +7577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3567.584936824946</v>
+        <v>3923.024912096992</v>
       </c>
       <c r="AB5" t="n">
-        <v>4881.327101303502</v>
+        <v>5367.65575637575</v>
       </c>
       <c r="AC5" t="n">
-        <v>4415.460093740527</v>
+        <v>4855.374224539215</v>
       </c>
       <c r="AD5" t="n">
-        <v>3567584.936824946</v>
+        <v>3923024.912096993</v>
       </c>
       <c r="AE5" t="n">
-        <v>4881327.101303502</v>
+        <v>5367655.75637575</v>
       </c>
       <c r="AF5" t="n">
         <v>3.246931871892452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.82083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4415460.093740527</v>
+        <v>4855374.224539215</v>
       </c>
     </row>
   </sheetData>
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9019.59209141322</v>
+        <v>9569.377177382168</v>
       </c>
       <c r="AB2" t="n">
-        <v>12341.00381579182</v>
+        <v>13093.24402522076</v>
       </c>
       <c r="AC2" t="n">
-        <v>11163.19573231982</v>
+        <v>11843.6431919366</v>
       </c>
       <c r="AD2" t="n">
-        <v>9019592.09141322</v>
+        <v>9569377.177382167</v>
       </c>
       <c r="AE2" t="n">
-        <v>12341003.81579182</v>
+        <v>13093244.02522076</v>
       </c>
       <c r="AF2" t="n">
         <v>1.848819997868142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>113</v>
+        <v>112.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>11163195.73231982</v>
+        <v>11843643.1919366</v>
       </c>
     </row>
     <row r="3">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5277.234211918273</v>
+        <v>5684.882231186524</v>
       </c>
       <c r="AB3" t="n">
-        <v>7220.544663889155</v>
+        <v>7778.30666801336</v>
       </c>
       <c r="AC3" t="n">
-        <v>6531.426015265387</v>
+        <v>7035.955996539845</v>
       </c>
       <c r="AD3" t="n">
-        <v>5277234.211918273</v>
+        <v>5684882.231186524</v>
       </c>
       <c r="AE3" t="n">
-        <v>7220544.663889156</v>
+        <v>7778306.668013359</v>
       </c>
       <c r="AF3" t="n">
         <v>2.504451126187861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.8875</v>
       </c>
       <c r="AH3" t="n">
-        <v>6531426.015265387</v>
+        <v>7035955.996539845</v>
       </c>
     </row>
     <row r="4">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4421.369884789126</v>
+        <v>4791.121788962241</v>
       </c>
       <c r="AB4" t="n">
-        <v>6049.513333441707</v>
+        <v>6555.42420103414</v>
       </c>
       <c r="AC4" t="n">
-        <v>5472.156271443092</v>
+        <v>5929.783715882845</v>
       </c>
       <c r="AD4" t="n">
-        <v>4421369.884789126</v>
+        <v>4791121.788962241</v>
       </c>
       <c r="AE4" t="n">
-        <v>6049513.333441707</v>
+        <v>6555424.20103414</v>
       </c>
       <c r="AF4" t="n">
         <v>2.737608700696697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.82916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5472156.271443092</v>
+        <v>5929783.715882845</v>
       </c>
     </row>
     <row r="5">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3985.289375757827</v>
+        <v>4345.524544383683</v>
       </c>
       <c r="AB5" t="n">
-        <v>5452.848742470779</v>
+        <v>5945.738392638708</v>
       </c>
       <c r="AC5" t="n">
-        <v>4932.436511610438</v>
+        <v>5378.285465341291</v>
       </c>
       <c r="AD5" t="n">
-        <v>3985289.375757827</v>
+        <v>4345524.544383683</v>
       </c>
       <c r="AE5" t="n">
-        <v>5452848.742470779</v>
+        <v>5945738.392638708</v>
       </c>
       <c r="AF5" t="n">
         <v>2.855183887842178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4932436.511610438</v>
+        <v>5378285.465341291</v>
       </c>
     </row>
     <row r="6">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3873.25351077644</v>
+        <v>4233.454513983515</v>
       </c>
       <c r="AB6" t="n">
-        <v>5299.556329329709</v>
+        <v>5792.399232864393</v>
       </c>
       <c r="AC6" t="n">
-        <v>4793.774111232305</v>
+        <v>5239.580779762979</v>
       </c>
       <c r="AD6" t="n">
-        <v>3873253.51077644</v>
+        <v>4233454.513983515</v>
       </c>
       <c r="AE6" t="n">
-        <v>5299556.32932971</v>
+        <v>5792399.232864393</v>
       </c>
       <c r="AF6" t="n">
         <v>2.884079484683017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4793774.111232305</v>
+        <v>5239580.779762979</v>
       </c>
     </row>
     <row r="7">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3890.821194607728</v>
+        <v>4251.022197814803</v>
       </c>
       <c r="AB7" t="n">
-        <v>5323.593209379191</v>
+        <v>5816.436112913873</v>
       </c>
       <c r="AC7" t="n">
-        <v>4815.516945185835</v>
+        <v>5261.323613716509</v>
       </c>
       <c r="AD7" t="n">
-        <v>3890821.194607728</v>
+        <v>4251022.197814803</v>
       </c>
       <c r="AE7" t="n">
-        <v>5323593.209379191</v>
+        <v>5816436.112913873</v>
       </c>
       <c r="AF7" t="n">
         <v>2.884079484683017e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.97083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4815516.945185835</v>
+        <v>5261323.613716508</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4372.585909866037</v>
+        <v>4788.722037404964</v>
       </c>
       <c r="AB2" t="n">
-        <v>5982.764946754855</v>
+        <v>6552.140755083906</v>
       </c>
       <c r="AC2" t="n">
-        <v>5411.778257099685</v>
+        <v>5926.813637405757</v>
       </c>
       <c r="AD2" t="n">
-        <v>4372585.909866037</v>
+        <v>4788722.037404964</v>
       </c>
       <c r="AE2" t="n">
-        <v>5982764.946754855</v>
+        <v>6552140.755083906</v>
       </c>
       <c r="AF2" t="n">
         <v>3.14236673428967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5411778.257099685</v>
+        <v>5926813.637405757</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3321.974011957871</v>
+        <v>3682.636845768515</v>
       </c>
       <c r="AB3" t="n">
-        <v>4545.271398311083</v>
+        <v>5038.746198852098</v>
       </c>
       <c r="AC3" t="n">
-        <v>4111.477075384576</v>
+        <v>4557.85533355817</v>
       </c>
       <c r="AD3" t="n">
-        <v>3321974.011957871</v>
+        <v>3682636.845768515</v>
       </c>
       <c r="AE3" t="n">
-        <v>4545271.398311083</v>
+        <v>5038746.198852099</v>
       </c>
       <c r="AF3" t="n">
         <v>3.596359328109251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4111477.075384576</v>
+        <v>4557855.33355817</v>
       </c>
     </row>
     <row r="4">
@@ -8913,28 +8913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3347.54648282652</v>
+        <v>3708.209316637165</v>
       </c>
       <c r="AB4" t="n">
-        <v>4580.260781131364</v>
+        <v>5073.735581672378</v>
       </c>
       <c r="AC4" t="n">
-        <v>4143.127120616394</v>
+        <v>4589.505378789989</v>
       </c>
       <c r="AD4" t="n">
-        <v>3347546.48282652</v>
+        <v>3708209.316637164</v>
       </c>
       <c r="AE4" t="n">
-        <v>4580260.781131363</v>
+        <v>5073735.581672378</v>
       </c>
       <c r="AF4" t="n">
         <v>3.596359328109251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.34166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4143127.120616394</v>
+        <v>4589505.378789988</v>
       </c>
     </row>
   </sheetData>
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>20528.42046133511</v>
+        <v>21334.02339643613</v>
       </c>
       <c r="AB2" t="n">
-        <v>28087.89052519368</v>
+        <v>29190.15200169212</v>
       </c>
       <c r="AC2" t="n">
-        <v>25407.22167506995</v>
+        <v>26404.28486328503</v>
       </c>
       <c r="AD2" t="n">
-        <v>20528420.46133511</v>
+        <v>21334023.39643613</v>
       </c>
       <c r="AE2" t="n">
-        <v>28087890.52519368</v>
+        <v>29190152.00169212</v>
       </c>
       <c r="AF2" t="n">
         <v>1.038092270428695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>162</v>
+        <v>161.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>25407221.67506995</v>
+        <v>26404284.86328503</v>
       </c>
     </row>
     <row r="3">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8490.885677157285</v>
+        <v>8966.487532754531</v>
       </c>
       <c r="AB3" t="n">
-        <v>11617.604374926</v>
+        <v>12268.34381582722</v>
       </c>
       <c r="AC3" t="n">
-        <v>10508.83651879277</v>
+        <v>11097.47030077289</v>
       </c>
       <c r="AD3" t="n">
-        <v>8490885.677157285</v>
+        <v>8966487.532754531</v>
       </c>
       <c r="AE3" t="n">
-        <v>11617604.374926</v>
+        <v>12268343.81582722</v>
       </c>
       <c r="AF3" t="n">
         <v>1.741549605174834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>97</v>
+        <v>96.21666666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>10508836.51879277</v>
+        <v>11097470.30077289</v>
       </c>
     </row>
     <row r="4">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6727.766776230292</v>
+        <v>7154.822977303545</v>
       </c>
       <c r="AB4" t="n">
-        <v>9205.227311361314</v>
+        <v>9789.544446059675</v>
       </c>
       <c r="AC4" t="n">
-        <v>8326.693336382315</v>
+        <v>8855.244063839295</v>
       </c>
       <c r="AD4" t="n">
-        <v>6727766.776230291</v>
+        <v>7154822.977303546</v>
       </c>
       <c r="AE4" t="n">
-        <v>9205227.311361313</v>
+        <v>9789544.446059676</v>
       </c>
       <c r="AF4" t="n">
         <v>1.998558888709873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>84</v>
+        <v>83.85833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>8326693.336382315</v>
+        <v>8855244.063839294</v>
       </c>
     </row>
     <row r="5">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5990.43349319615</v>
+        <v>6378.75647573044</v>
       </c>
       <c r="AB5" t="n">
-        <v>8196.375384665267</v>
+        <v>8727.696020969614</v>
       </c>
       <c r="AC5" t="n">
-        <v>7414.124821637605</v>
+        <v>7894.736962126243</v>
       </c>
       <c r="AD5" t="n">
-        <v>5990433.49319615</v>
+        <v>6378756.47573044</v>
       </c>
       <c r="AE5" t="n">
-        <v>8196375.384665267</v>
+        <v>8727696.020969614</v>
       </c>
       <c r="AF5" t="n">
         <v>2.13410212587937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>79</v>
+        <v>78.53333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>7414124.821637605</v>
+        <v>7894736.962126243</v>
       </c>
     </row>
     <row r="6">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5562.556258695446</v>
+        <v>5941.136147112128</v>
       </c>
       <c r="AB6" t="n">
-        <v>7610.934875810027</v>
+        <v>8128.924580907686</v>
       </c>
       <c r="AC6" t="n">
-        <v>6884.557933276618</v>
+        <v>7353.111427922854</v>
       </c>
       <c r="AD6" t="n">
-        <v>5562556.258695446</v>
+        <v>5941136.147112128</v>
       </c>
       <c r="AE6" t="n">
-        <v>7610934.875810027</v>
+        <v>8128924.580907686</v>
       </c>
       <c r="AF6" t="n">
         <v>2.216956448896925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.58749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>6884557.933276618</v>
+        <v>7353111.427922854</v>
       </c>
     </row>
     <row r="7">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5263.64717344304</v>
+        <v>5632.518133160896</v>
       </c>
       <c r="AB7" t="n">
-        <v>7201.954278429507</v>
+        <v>7706.659798953728</v>
       </c>
       <c r="AC7" t="n">
-        <v>6514.609870102237</v>
+        <v>6971.147004106253</v>
       </c>
       <c r="AD7" t="n">
-        <v>5263647.17344304</v>
+        <v>5632518.133160897</v>
       </c>
       <c r="AE7" t="n">
-        <v>7201954.278429507</v>
+        <v>7706659.798953728</v>
       </c>
       <c r="AF7" t="n">
         <v>2.274874033918906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.66666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>6514609.870102237</v>
+        <v>6971147.004106253</v>
       </c>
     </row>
     <row r="8">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>5024.768470859406</v>
+        <v>5383.863182070731</v>
       </c>
       <c r="AB8" t="n">
-        <v>6875.10989896998</v>
+        <v>7366.439124989919</v>
       </c>
       <c r="AC8" t="n">
-        <v>6218.959059489373</v>
+        <v>6663.39651376285</v>
       </c>
       <c r="AD8" t="n">
-        <v>5024768.470859407</v>
+        <v>5383863.182070731</v>
       </c>
       <c r="AE8" t="n">
-        <v>6875109.89896998</v>
+        <v>7366439.124989919</v>
       </c>
       <c r="AF8" t="n">
         <v>2.317105606330767e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.32083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>6218959.059489373</v>
+        <v>6663396.51376285</v>
       </c>
     </row>
     <row r="9">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4827.743491900554</v>
+        <v>5186.804037693098</v>
       </c>
       <c r="AB9" t="n">
-        <v>6605.531630629852</v>
+        <v>7096.814110016541</v>
       </c>
       <c r="AC9" t="n">
-        <v>5975.108962724159</v>
+        <v>6419.504131797456</v>
       </c>
       <c r="AD9" t="n">
-        <v>4827743.491900554</v>
+        <v>5186804.037693097</v>
       </c>
       <c r="AE9" t="n">
-        <v>6605531.630629851</v>
+        <v>7096814.110016542</v>
       </c>
       <c r="AF9" t="n">
         <v>2.349684247905631e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.325</v>
       </c>
       <c r="AH9" t="n">
-        <v>5975108.962724159</v>
+        <v>6419504.131797455</v>
       </c>
     </row>
     <row r="10">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4653.835268710879</v>
+        <v>5003.322536449863</v>
       </c>
       <c r="AB10" t="n">
-        <v>6367.582727372399</v>
+        <v>6845.766625382988</v>
       </c>
       <c r="AC10" t="n">
-        <v>5759.869568830225</v>
+        <v>6192.41626674998</v>
       </c>
       <c r="AD10" t="n">
-        <v>4653835.268710879</v>
+        <v>5003322.536449863</v>
       </c>
       <c r="AE10" t="n">
-        <v>6367582.727372399</v>
+        <v>6845766.625382988</v>
       </c>
       <c r="AF10" t="n">
         <v>2.373414369546581e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.60833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>5759869.568830225</v>
+        <v>6192416.26674998</v>
       </c>
     </row>
     <row r="11">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4598.672608131613</v>
+        <v>4948.05839064411</v>
       </c>
       <c r="AB11" t="n">
-        <v>6292.106741563014</v>
+        <v>6770.151783009512</v>
       </c>
       <c r="AC11" t="n">
-        <v>5691.596905175277</v>
+        <v>6124.017998806535</v>
       </c>
       <c r="AD11" t="n">
-        <v>4598672.608131613</v>
+        <v>4948058.39064411</v>
       </c>
       <c r="AE11" t="n">
-        <v>6292106.741563014</v>
+        <v>6770151.783009511</v>
       </c>
       <c r="AF11" t="n">
         <v>2.382262889480496e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.34583333333335</v>
       </c>
       <c r="AH11" t="n">
-        <v>5691596.905175277</v>
+        <v>6124017.998806534</v>
       </c>
     </row>
     <row r="12">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4610.218481098602</v>
+        <v>4959.6042636111</v>
       </c>
       <c r="AB12" t="n">
-        <v>6307.904314324414</v>
+        <v>6785.949355770914</v>
       </c>
       <c r="AC12" t="n">
-        <v>5705.886779764362</v>
+        <v>6138.30787339562</v>
       </c>
       <c r="AD12" t="n">
-        <v>4610218.481098602</v>
+        <v>4959604.2636111</v>
       </c>
       <c r="AE12" t="n">
-        <v>6307904.314324414</v>
+        <v>6785949.355770914</v>
       </c>
       <c r="AF12" t="n">
         <v>2.383871711286661e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.29583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>5705886.779764363</v>
+        <v>6138307.87339562</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3541.803043293206</v>
+        <v>3927.627163899337</v>
       </c>
       <c r="AB2" t="n">
-        <v>4846.051177156505</v>
+        <v>5373.952760328738</v>
       </c>
       <c r="AC2" t="n">
-        <v>4383.55085428405</v>
+        <v>4861.07025127283</v>
       </c>
       <c r="AD2" t="n">
-        <v>3541803.043293206</v>
+        <v>3927627.163899337</v>
       </c>
       <c r="AE2" t="n">
-        <v>4846051.177156505</v>
+        <v>5373952.760328738</v>
       </c>
       <c r="AF2" t="n">
         <v>3.642363516160435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.47083333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>4383550.85428405</v>
+        <v>4861070.25127283</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3215.386223630509</v>
+        <v>3582.932792736869</v>
       </c>
       <c r="AB3" t="n">
-        <v>4399.433284000231</v>
+        <v>4902.326714861812</v>
       </c>
       <c r="AC3" t="n">
-        <v>3979.557546018476</v>
+        <v>4434.455533653972</v>
       </c>
       <c r="AD3" t="n">
-        <v>3215386.223630508</v>
+        <v>3582932.792736868</v>
       </c>
       <c r="AE3" t="n">
-        <v>4399433.284000231</v>
+        <v>4902326.714861811</v>
       </c>
       <c r="AF3" t="n">
         <v>3.826212030931003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3979557.546018477</v>
+        <v>4434455.533653972</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12857.35049499104</v>
+        <v>13499.57224700895</v>
       </c>
       <c r="AB2" t="n">
-        <v>17591.99417351876</v>
+        <v>18470.71030745378</v>
       </c>
       <c r="AC2" t="n">
-        <v>15913.03894011636</v>
+        <v>16707.89163951443</v>
       </c>
       <c r="AD2" t="n">
-        <v>12857350.49499104</v>
+        <v>13499572.24700895</v>
       </c>
       <c r="AE2" t="n">
-        <v>17591994.17351876</v>
+        <v>18470710.30745379</v>
       </c>
       <c r="AF2" t="n">
         <v>1.433695138085662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>131</v>
+        <v>130.2541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>15913038.94011636</v>
+        <v>16707891.63951443</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6580.422585305105</v>
+        <v>7011.766904921526</v>
       </c>
       <c r="AB3" t="n">
-        <v>9003.624488970529</v>
+        <v>9593.808816638093</v>
       </c>
       <c r="AC3" t="n">
-        <v>8144.331204409179</v>
+        <v>8678.189168173034</v>
       </c>
       <c r="AD3" t="n">
-        <v>6580422.585305105</v>
+        <v>7011766.904921526</v>
       </c>
       <c r="AE3" t="n">
-        <v>9003624.488970529</v>
+        <v>9593808.816638093</v>
       </c>
       <c r="AF3" t="n">
         <v>2.115361379107322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.28333333333335</v>
       </c>
       <c r="AH3" t="n">
-        <v>8144331.204409179</v>
+        <v>8678189.168173034</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5421.38925471172</v>
+        <v>5814.345633774989</v>
       </c>
       <c r="AB4" t="n">
-        <v>7417.783953110807</v>
+        <v>7955.444206957131</v>
       </c>
       <c r="AC4" t="n">
-        <v>6709.841063550797</v>
+        <v>7196.187777380913</v>
       </c>
       <c r="AD4" t="n">
-        <v>5421389.25471172</v>
+        <v>5814345.633774989</v>
       </c>
       <c r="AE4" t="n">
-        <v>7417783.953110808</v>
+        <v>7955444.206957132</v>
       </c>
       <c r="AF4" t="n">
         <v>2.35647672274286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.24166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6709841.063550797</v>
+        <v>7196187.777380913</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4875.203371109828</v>
+        <v>5239.462749659879</v>
       </c>
       <c r="AB5" t="n">
-        <v>6670.468331146084</v>
+        <v>7168.864082867909</v>
       </c>
       <c r="AC5" t="n">
-        <v>6033.848195682351</v>
+        <v>6484.677756362659</v>
       </c>
       <c r="AD5" t="n">
-        <v>4875203.371109828</v>
+        <v>5239462.749659879</v>
       </c>
       <c r="AE5" t="n">
-        <v>6670468.331146084</v>
+        <v>7168864.082867909</v>
       </c>
       <c r="AF5" t="n">
         <v>2.484653280883685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.16249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>6033848.195682351</v>
+        <v>6484677.756362659</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4515.657420994756</v>
+        <v>4879.915788514949</v>
       </c>
       <c r="AB6" t="n">
-        <v>6178.521700150779</v>
+        <v>6676.916068536952</v>
       </c>
       <c r="AC6" t="n">
-        <v>5588.852260697824</v>
+        <v>6039.680570066092</v>
       </c>
       <c r="AD6" t="n">
-        <v>4515657.420994756</v>
+        <v>4879915.788514948</v>
       </c>
       <c r="AE6" t="n">
-        <v>6178521.700150779</v>
+        <v>6676916.068536952</v>
       </c>
       <c r="AF6" t="n">
         <v>2.562186653465373e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>5588852.260697824</v>
+        <v>6039680.570066092</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4262.751379374015</v>
+        <v>4617.353983302911</v>
       </c>
       <c r="AB7" t="n">
-        <v>5832.484496578157</v>
+        <v>6317.667423236491</v>
       </c>
       <c r="AC7" t="n">
-        <v>5275.840362167922</v>
+        <v>5714.718111264479</v>
       </c>
       <c r="AD7" t="n">
-        <v>4262751.379374014</v>
+        <v>4617353.983302911</v>
       </c>
       <c r="AE7" t="n">
-        <v>5832484.496578157</v>
+        <v>6317667.423236491</v>
       </c>
       <c r="AF7" t="n">
         <v>2.613278008808219e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.45416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5275840.362167922</v>
+        <v>5714718.111264479</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4196.979921683737</v>
+        <v>4542.062412666602</v>
       </c>
       <c r="AB8" t="n">
-        <v>5742.493086534388</v>
+        <v>6214.65017466222</v>
       </c>
       <c r="AC8" t="n">
-        <v>5194.437605994995</v>
+        <v>5621.532684308523</v>
       </c>
       <c r="AD8" t="n">
-        <v>4196979.921683737</v>
+        <v>4542062.412666602</v>
       </c>
       <c r="AE8" t="n">
-        <v>5742493.086534387</v>
+        <v>6214650.174662219</v>
       </c>
       <c r="AF8" t="n">
         <v>2.627619441886913e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.07083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>5194437.605994996</v>
+        <v>5621532.684308523</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4211.75415614314</v>
+        <v>4556.836647126006</v>
       </c>
       <c r="AB9" t="n">
-        <v>5762.707845914968</v>
+        <v>6234.864934042799</v>
       </c>
       <c r="AC9" t="n">
-        <v>5212.723097111885</v>
+        <v>5639.818175425414</v>
       </c>
       <c r="AD9" t="n">
-        <v>4211754.15614314</v>
+        <v>4556836.647126006</v>
       </c>
       <c r="AE9" t="n">
-        <v>5762707.845914968</v>
+        <v>6234864.934042799</v>
       </c>
       <c r="AF9" t="n">
         <v>2.628515781454331e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.04166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5212723.097111885</v>
+        <v>5639818.175425414</v>
       </c>
     </row>
   </sheetData>
@@ -12009,28 +12009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16212.73631781018</v>
+        <v>16936.39727322352</v>
       </c>
       <c r="AB2" t="n">
-        <v>22182.98108547531</v>
+        <v>23173.12593034005</v>
       </c>
       <c r="AC2" t="n">
-        <v>20065.86850468619</v>
+        <v>20961.51531523403</v>
       </c>
       <c r="AD2" t="n">
-        <v>16212736.31781018</v>
+        <v>16936397.27322352</v>
       </c>
       <c r="AE2" t="n">
-        <v>22182981.0854753</v>
+        <v>23173125.93034005</v>
       </c>
       <c r="AF2" t="n">
         <v>1.219180678464231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>145</v>
+        <v>144.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>20065868.5046862</v>
+        <v>20961515.31523403</v>
       </c>
     </row>
     <row r="3">
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7505.735383065628</v>
+        <v>7959.200982791571</v>
       </c>
       <c r="AB3" t="n">
-        <v>10269.67828078612</v>
+        <v>10890.12991982153</v>
       </c>
       <c r="AC3" t="n">
-        <v>9289.5545992515</v>
+        <v>9850.791204666693</v>
       </c>
       <c r="AD3" t="n">
-        <v>7505735.383065629</v>
+        <v>7959200.982791571</v>
       </c>
       <c r="AE3" t="n">
-        <v>10269678.28078612</v>
+        <v>10890129.91982153</v>
       </c>
       <c r="AF3" t="n">
         <v>1.912954555175314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>93</v>
+        <v>92.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>9289554.599251499</v>
+        <v>9850791.204666693</v>
       </c>
     </row>
     <row r="4">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6068.524245037452</v>
+        <v>6473.801712403948</v>
       </c>
       <c r="AB4" t="n">
-        <v>8303.222596455367</v>
+        <v>8857.741106886224</v>
       </c>
       <c r="AC4" t="n">
-        <v>7510.774685495459</v>
+        <v>8012.37072756239</v>
       </c>
       <c r="AD4" t="n">
-        <v>6068524.245037451</v>
+        <v>6473801.712403947</v>
       </c>
       <c r="AE4" t="n">
-        <v>8303222.596455367</v>
+        <v>8857741.106886223</v>
       </c>
       <c r="AF4" t="n">
         <v>2.162543937650642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>82</v>
+        <v>81.50416666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>7510774.685495459</v>
+        <v>8012370.72756239</v>
       </c>
     </row>
     <row r="5">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5433.158474320322</v>
+        <v>5819.099595401179</v>
       </c>
       <c r="AB5" t="n">
-        <v>7433.88711860062</v>
+        <v>7961.948786984069</v>
       </c>
       <c r="AC5" t="n">
-        <v>6724.407365527197</v>
+        <v>7202.071569419315</v>
       </c>
       <c r="AD5" t="n">
-        <v>5433158.474320322</v>
+        <v>5819099.595401179</v>
       </c>
       <c r="AE5" t="n">
-        <v>7433887.11860062</v>
+        <v>7961948.786984068</v>
       </c>
       <c r="AF5" t="n">
         <v>2.29326108881145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.8625</v>
       </c>
       <c r="AH5" t="n">
-        <v>6724407.365527197</v>
+        <v>7202071.569419315</v>
       </c>
     </row>
     <row r="6">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5051.555989336215</v>
+        <v>5418.161775161287</v>
       </c>
       <c r="AB6" t="n">
-        <v>6911.761763531861</v>
+        <v>7413.367973203554</v>
       </c>
       <c r="AC6" t="n">
-        <v>6252.11292153868</v>
+        <v>6705.846538568027</v>
       </c>
       <c r="AD6" t="n">
-        <v>5051555.989336215</v>
+        <v>5418161.775161287</v>
       </c>
       <c r="AE6" t="n">
-        <v>6911761.763531861</v>
+        <v>7413367.973203555</v>
       </c>
       <c r="AF6" t="n">
         <v>2.375329462032151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.21250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>6252112.92153868</v>
+        <v>6705846.538568026</v>
       </c>
     </row>
     <row r="7">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4767.366218851918</v>
+        <v>5124.422399470046</v>
       </c>
       <c r="AB7" t="n">
-        <v>6522.920781987407</v>
+        <v>7011.460800516112</v>
       </c>
       <c r="AC7" t="n">
-        <v>5900.382377531099</v>
+        <v>6342.296822361627</v>
       </c>
       <c r="AD7" t="n">
-        <v>4767366.218851918</v>
+        <v>5124422.399470046</v>
       </c>
       <c r="AE7" t="n">
-        <v>6522920.781987407</v>
+        <v>7011460.800516112</v>
       </c>
       <c r="AF7" t="n">
         <v>2.430746765598707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.52083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>5900382.377531099</v>
+        <v>6342296.822361628</v>
       </c>
     </row>
     <row r="8">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4530.532505538133</v>
+        <v>4887.453035510995</v>
       </c>
       <c r="AB8" t="n">
-        <v>6198.874447065445</v>
+        <v>6687.228862396812</v>
       </c>
       <c r="AC8" t="n">
-        <v>5607.262570012214</v>
+        <v>6049.009125354063</v>
       </c>
       <c r="AD8" t="n">
-        <v>4530532.505538133</v>
+        <v>4887453.035510994</v>
       </c>
       <c r="AE8" t="n">
-        <v>6198874.447065445</v>
+        <v>6687228.862396812</v>
       </c>
       <c r="AF8" t="n">
         <v>2.472627017912364e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.29166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5607262.570012215</v>
+        <v>6049009.125354063</v>
       </c>
     </row>
     <row r="9">
@@ -12751,28 +12751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4403.609078453082</v>
+        <v>4760.596928233646</v>
       </c>
       <c r="AB9" t="n">
-        <v>6025.212214661254</v>
+        <v>6513.658739923464</v>
       </c>
       <c r="AC9" t="n">
-        <v>5450.174417332212</v>
+        <v>5892.00429176238</v>
       </c>
       <c r="AD9" t="n">
-        <v>4403609.078453082</v>
+        <v>4760596.928233647</v>
       </c>
       <c r="AE9" t="n">
-        <v>6025212.214661254</v>
+        <v>6513658.739923464</v>
       </c>
       <c r="AF9" t="n">
         <v>2.492086529088406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.72916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5450174.417332212</v>
+        <v>5892004.29176238</v>
       </c>
     </row>
     <row r="10">
@@ -12857,28 +12857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4396.355552896188</v>
+        <v>4743.760643080885</v>
       </c>
       <c r="AB10" t="n">
-        <v>6015.287620991348</v>
+        <v>6490.622591812972</v>
       </c>
       <c r="AC10" t="n">
-        <v>5441.197012952907</v>
+        <v>5871.166681296119</v>
       </c>
       <c r="AD10" t="n">
-        <v>4396355.552896188</v>
+        <v>4743760.643080885</v>
       </c>
       <c r="AE10" t="n">
-        <v>6015287.620991348</v>
+        <v>6490622.591812972</v>
       </c>
       <c r="AF10" t="n">
         <v>2.496316857604937e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.6125</v>
       </c>
       <c r="AH10" t="n">
-        <v>5441197.012952907</v>
+        <v>5871166.681296119</v>
       </c>
     </row>
     <row r="11">
@@ -12963,28 +12963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4414.814499291077</v>
+        <v>4762.219589475774</v>
       </c>
       <c r="AB11" t="n">
-        <v>6040.543965800079</v>
+        <v>6515.878936621702</v>
       </c>
       <c r="AC11" t="n">
-        <v>5464.042927660594</v>
+        <v>5894.012596003805</v>
       </c>
       <c r="AD11" t="n">
-        <v>4414814.499291076</v>
+        <v>4762219.589475774</v>
       </c>
       <c r="AE11" t="n">
-        <v>6040543.965800079</v>
+        <v>6515878.936621701</v>
       </c>
       <c r="AF11" t="n">
         <v>2.496316857604937e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.6125</v>
       </c>
       <c r="AH11" t="n">
-        <v>5464042.927660594</v>
+        <v>5894012.596003805</v>
       </c>
     </row>
   </sheetData>
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26323.58925748005</v>
+        <v>27231.32892883694</v>
       </c>
       <c r="AB2" t="n">
-        <v>36017.09613688304</v>
+        <v>37259.10560188158</v>
       </c>
       <c r="AC2" t="n">
-        <v>32579.67503188932</v>
+        <v>33703.14885671958</v>
       </c>
       <c r="AD2" t="n">
-        <v>26323589.25748004</v>
+        <v>27231328.92883694</v>
       </c>
       <c r="AE2" t="n">
-        <v>36017096.13688304</v>
+        <v>37259105.60188158</v>
       </c>
       <c r="AF2" t="n">
         <v>8.802563830117469e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>183</v>
+        <v>182.0041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>32579675.03188932</v>
+        <v>33703148.85671958</v>
       </c>
     </row>
     <row r="3">
@@ -13366,28 +13366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9547.604500529951</v>
+        <v>10055.16942306571</v>
       </c>
       <c r="AB3" t="n">
-        <v>13063.45368820884</v>
+        <v>13757.92640740632</v>
       </c>
       <c r="AC3" t="n">
-        <v>11816.6960028781</v>
+        <v>12444.88922045393</v>
       </c>
       <c r="AD3" t="n">
-        <v>9547604.50052995</v>
+        <v>10055169.42306571</v>
       </c>
       <c r="AE3" t="n">
-        <v>13063453.68820884</v>
+        <v>13757926.40740632</v>
       </c>
       <c r="AF3" t="n">
         <v>1.593998561635514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>100.5333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>11816696.0028781</v>
+        <v>12444889.22045393</v>
       </c>
     </row>
     <row r="4">
@@ -13472,28 +13472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>7419.402707151856</v>
+        <v>7848.831795484522</v>
       </c>
       <c r="AB4" t="n">
-        <v>10151.55410487203</v>
+        <v>10739.11792860313</v>
       </c>
       <c r="AC4" t="n">
-        <v>9182.704028898335</v>
+        <v>9714.191585943512</v>
       </c>
       <c r="AD4" t="n">
-        <v>7419402.707151855</v>
+        <v>7848831.795484522</v>
       </c>
       <c r="AE4" t="n">
-        <v>10151554.10487203</v>
+        <v>10739117.92860313</v>
       </c>
       <c r="AF4" t="n">
         <v>1.856268047530669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>87</v>
+        <v>86.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>9182704.028898336</v>
+        <v>9714191.585943513</v>
       </c>
     </row>
     <row r="5">
@@ -13578,28 +13578,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>6559.74212416405</v>
+        <v>6959.882707566404</v>
       </c>
       <c r="AB5" t="n">
-        <v>8975.328569679781</v>
+        <v>9522.818568847571</v>
       </c>
       <c r="AC5" t="n">
-        <v>8118.735807941969</v>
+        <v>8613.974129996202</v>
       </c>
       <c r="AD5" t="n">
-        <v>6559742.12416405</v>
+        <v>6959882.707566404</v>
       </c>
       <c r="AE5" t="n">
-        <v>8975328.569679782</v>
+        <v>9522818.568847571</v>
       </c>
       <c r="AF5" t="n">
         <v>1.9950939777479e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>81</v>
+        <v>80.30833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>8118735.807941969</v>
+        <v>8613974.129996203</v>
       </c>
     </row>
     <row r="6">
@@ -13684,28 +13684,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>6060.444259619607</v>
+        <v>6450.855162434113</v>
       </c>
       <c r="AB6" t="n">
-        <v>8292.167203942874</v>
+        <v>8826.344624887153</v>
       </c>
       <c r="AC6" t="n">
-        <v>7500.774404128017</v>
+        <v>7983.970681740076</v>
       </c>
       <c r="AD6" t="n">
-        <v>6060444.259619607</v>
+        <v>6450855.162434112</v>
       </c>
       <c r="AE6" t="n">
-        <v>8292167.203942874</v>
+        <v>8826344.624887154</v>
       </c>
       <c r="AF6" t="n">
         <v>2.08277351262194e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>77</v>
+        <v>76.92916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>7500774.404128017</v>
+        <v>7983970.681740075</v>
       </c>
     </row>
     <row r="7">
@@ -13790,28 +13790,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5735.948036580643</v>
+        <v>6116.596104418377</v>
       </c>
       <c r="AB7" t="n">
-        <v>7848.177155817931</v>
+        <v>8368.99663524111</v>
       </c>
       <c r="AC7" t="n">
-        <v>7099.15814305219</v>
+        <v>7570.271342333934</v>
       </c>
       <c r="AD7" t="n">
-        <v>5735948.036580643</v>
+        <v>6116596.104418376</v>
       </c>
       <c r="AE7" t="n">
-        <v>7848177.155817931</v>
+        <v>8368996.635241111</v>
       </c>
       <c r="AF7" t="n">
         <v>2.1412265358713e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.82916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>7099158.143052191</v>
+        <v>7570271.342333933</v>
       </c>
     </row>
     <row r="8">
@@ -13896,28 +13896,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>5490.073943473773</v>
+        <v>5860.891856527032</v>
       </c>
       <c r="AB8" t="n">
-        <v>7511.761374429663</v>
+        <v>8019.130802400901</v>
       </c>
       <c r="AC8" t="n">
-        <v>6794.849411677116</v>
+        <v>7253.796213540224</v>
       </c>
       <c r="AD8" t="n">
-        <v>5490073.943473773</v>
+        <v>5860891.856527032</v>
       </c>
       <c r="AE8" t="n">
-        <v>7511761.374429664</v>
+        <v>8019130.802400901</v>
       </c>
       <c r="AF8" t="n">
         <v>2.185835422035286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>74</v>
+        <v>73.30833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>6794849.411677117</v>
+        <v>7253796.213540224</v>
       </c>
     </row>
     <row r="9">
@@ -14002,28 +14002,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>5287.464589759464</v>
+        <v>5648.553833254732</v>
       </c>
       <c r="AB9" t="n">
-        <v>7234.54231818389</v>
+        <v>7728.600551267274</v>
       </c>
       <c r="AC9" t="n">
-        <v>6544.087753080061</v>
+        <v>6990.993761813035</v>
       </c>
       <c r="AD9" t="n">
-        <v>5287464.589759463</v>
+        <v>5648553.833254732</v>
       </c>
       <c r="AE9" t="n">
-        <v>7234542.31818389</v>
+        <v>7728600.551267274</v>
       </c>
       <c r="AF9" t="n">
         <v>2.21852296793131e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.22083333333335</v>
       </c>
       <c r="AH9" t="n">
-        <v>6544087.753080061</v>
+        <v>6990993.761813035</v>
       </c>
     </row>
     <row r="10">
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>5109.370645492948</v>
+        <v>5470.425723569434</v>
       </c>
       <c r="AB10" t="n">
-        <v>6990.866326688122</v>
+        <v>7484.87781313826</v>
       </c>
       <c r="AC10" t="n">
-        <v>6323.667856211258</v>
+        <v>6770.53157974405</v>
       </c>
       <c r="AD10" t="n">
-        <v>5109370.645492948</v>
+        <v>5470425.723569434</v>
       </c>
       <c r="AE10" t="n">
-        <v>6990866.326688122</v>
+        <v>7484877.81313826</v>
       </c>
       <c r="AF10" t="n">
         <v>2.244673004648129e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.37916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>6323667.856211258</v>
+        <v>6770531.57974405</v>
       </c>
     </row>
     <row r="11">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4953.156568042154</v>
+        <v>5314.278965926345</v>
       </c>
       <c r="AB11" t="n">
-        <v>6777.127334241228</v>
+        <v>7271.230930622207</v>
       </c>
       <c r="AC11" t="n">
-        <v>6130.327813218943</v>
+        <v>6577.274855840054</v>
       </c>
       <c r="AD11" t="n">
-        <v>4953156.568042153</v>
+        <v>5314278.965926345</v>
       </c>
       <c r="AE11" t="n">
-        <v>6777127.334241228</v>
+        <v>7271230.930622207</v>
       </c>
       <c r="AF11" t="n">
         <v>2.266208329003157e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.70833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>6130327.813218944</v>
+        <v>6577274.855840054</v>
       </c>
     </row>
     <row r="12">
@@ -14320,28 +14320,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4836.55366534677</v>
+        <v>5187.880073865266</v>
       </c>
       <c r="AB12" t="n">
-        <v>6617.586098616384</v>
+        <v>7098.28639017867</v>
       </c>
       <c r="AC12" t="n">
-        <v>5986.01296920461</v>
+        <v>6420.835899607268</v>
       </c>
       <c r="AD12" t="n">
-        <v>4836553.66534677</v>
+        <v>5187880.073865267</v>
       </c>
       <c r="AE12" t="n">
-        <v>6617586.098616384</v>
+        <v>7098286.390178669</v>
       </c>
       <c r="AF12" t="n">
         <v>2.280821584815496e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.25416666666668</v>
       </c>
       <c r="AH12" t="n">
-        <v>5986012.96920461</v>
+        <v>6420835.899607268</v>
       </c>
     </row>
     <row r="13">
@@ -14426,28 +14426,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4806.936497425782</v>
+        <v>5158.262905944281</v>
       </c>
       <c r="AB13" t="n">
-        <v>6577.062582849655</v>
+        <v>7057.76287441194</v>
       </c>
       <c r="AC13" t="n">
-        <v>5949.356960907548</v>
+        <v>6384.179891310207</v>
       </c>
       <c r="AD13" t="n">
-        <v>4806936.497425782</v>
+        <v>5158262.90594428</v>
       </c>
       <c r="AE13" t="n">
-        <v>6577062.582849655</v>
+        <v>7057762.874411941</v>
       </c>
       <c r="AF13" t="n">
         <v>2.286589975267736e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.075</v>
       </c>
       <c r="AH13" t="n">
-        <v>5949356.960907549</v>
+        <v>6384179.891310207</v>
       </c>
     </row>
     <row r="14">
@@ -14532,28 +14532,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4818.738289792825</v>
+        <v>5170.064698311321</v>
       </c>
       <c r="AB14" t="n">
-        <v>6593.210315824575</v>
+        <v>7073.910607386861</v>
       </c>
       <c r="AC14" t="n">
-        <v>5963.963576910826</v>
+        <v>6398.786507313484</v>
       </c>
       <c r="AD14" t="n">
-        <v>4818738.289792825</v>
+        <v>5170064.698311321</v>
       </c>
       <c r="AE14" t="n">
-        <v>6593210.315824576</v>
+        <v>7073910.607386861</v>
       </c>
       <c r="AF14" t="n">
         <v>2.285820856540771e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>71</v>
+        <v>70.09166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>5963963.576910826</v>
+        <v>6398786.507313484</v>
       </c>
     </row>
   </sheetData>
@@ -14829,28 +14829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10164.27221440614</v>
+        <v>10744.83981407258</v>
       </c>
       <c r="AB2" t="n">
-        <v>13907.20565979375</v>
+        <v>14701.56386249226</v>
       </c>
       <c r="AC2" t="n">
-        <v>12579.92147050824</v>
+        <v>13298.46724122992</v>
       </c>
       <c r="AD2" t="n">
-        <v>10164272.21440613</v>
+        <v>10744839.81407258</v>
       </c>
       <c r="AE2" t="n">
-        <v>13907205.65979375</v>
+        <v>14701563.86249227</v>
       </c>
       <c r="AF2" t="n">
         <v>1.694714747748652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>118</v>
+        <v>117.8666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12579921.47050825</v>
+        <v>13298467.24122992</v>
       </c>
     </row>
     <row r="3">
@@ -14935,28 +14935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5703.319984262922</v>
+        <v>6122.086135531647</v>
       </c>
       <c r="AB3" t="n">
-        <v>7803.534015188746</v>
+        <v>8376.508338013366</v>
       </c>
       <c r="AC3" t="n">
-        <v>7058.775681107614</v>
+        <v>7577.066138736345</v>
       </c>
       <c r="AD3" t="n">
-        <v>5703319.984262922</v>
+        <v>6122086.135531646</v>
       </c>
       <c r="AE3" t="n">
-        <v>7803534.015188746</v>
+        <v>8376508.338013365</v>
       </c>
       <c r="AF3" t="n">
         <v>2.360135983922664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>84.63333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>7058775.681107614</v>
+        <v>7577066.138736345</v>
       </c>
     </row>
     <row r="4">
@@ -15041,28 +15041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4758.246100085583</v>
+        <v>5138.933283397484</v>
       </c>
       <c r="AB4" t="n">
-        <v>6510.442233140063</v>
+        <v>7031.315232080649</v>
       </c>
       <c r="AC4" t="n">
-        <v>5889.094763871991</v>
+        <v>6360.256374843514</v>
       </c>
       <c r="AD4" t="n">
-        <v>4758246.100085583</v>
+        <v>5138933.283397484</v>
       </c>
       <c r="AE4" t="n">
-        <v>6510442.233140063</v>
+        <v>7031315.23208065</v>
       </c>
       <c r="AF4" t="n">
         <v>2.59504693905614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.97083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5889094.763871991</v>
+        <v>6360256.374843515</v>
       </c>
     </row>
     <row r="5">
@@ -15147,28 +15147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4283.821724029584</v>
+        <v>4645.402103555368</v>
       </c>
       <c r="AB5" t="n">
-        <v>5861.313871693911</v>
+        <v>6356.04409876164</v>
       </c>
       <c r="AC5" t="n">
-        <v>5301.918302184908</v>
+        <v>5749.43217073951</v>
       </c>
       <c r="AD5" t="n">
-        <v>4283821.724029585</v>
+        <v>4645402.103555368</v>
       </c>
       <c r="AE5" t="n">
-        <v>5861313.871693911</v>
+        <v>6356044.09876164</v>
       </c>
       <c r="AF5" t="n">
         <v>2.717775927860569e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5301918.302184909</v>
+        <v>5749432.17073951</v>
       </c>
     </row>
     <row r="6">
@@ -15253,28 +15253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4008.563979715782</v>
+        <v>4360.726102478845</v>
       </c>
       <c r="AB6" t="n">
-        <v>5484.694082409113</v>
+        <v>5966.537835069924</v>
       </c>
       <c r="AC6" t="n">
-        <v>4961.242577000271</v>
+        <v>5397.099838179069</v>
       </c>
       <c r="AD6" t="n">
-        <v>4008563.979715782</v>
+        <v>4360726.102478845</v>
       </c>
       <c r="AE6" t="n">
-        <v>5484694.082409113</v>
+        <v>5966537.835069924</v>
       </c>
       <c r="AF6" t="n">
         <v>2.781058062712852e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.82083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>4961242.577000271</v>
+        <v>5397099.838179069</v>
       </c>
     </row>
     <row r="7">
@@ -15359,28 +15359,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3991.942959479583</v>
+        <v>4344.105082242647</v>
       </c>
       <c r="AB7" t="n">
-        <v>5461.952469254283</v>
+        <v>5943.796221915093</v>
       </c>
       <c r="AC7" t="n">
-        <v>4940.671391486885</v>
+        <v>5376.528652665684</v>
       </c>
       <c r="AD7" t="n">
-        <v>3991942.959479583</v>
+        <v>4344105.082242647</v>
       </c>
       <c r="AE7" t="n">
-        <v>5461952.469254282</v>
+        <v>5943796.221915093</v>
       </c>
       <c r="AF7" t="n">
         <v>2.788249214400612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.64583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4940671.391486885</v>
+        <v>5376528.652665684</v>
       </c>
     </row>
     <row r="8">
@@ -15465,28 +15465,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4011.390288718866</v>
+        <v>4363.55241148193</v>
       </c>
       <c r="AB8" t="n">
-        <v>5488.561163075085</v>
+        <v>5970.404915735896</v>
       </c>
       <c r="AC8" t="n">
-        <v>4964.740588914965</v>
+        <v>5400.597850093764</v>
       </c>
       <c r="AD8" t="n">
-        <v>4011390.288718866</v>
+        <v>4363552.41148193</v>
       </c>
       <c r="AE8" t="n">
-        <v>5488561.163075085</v>
+        <v>5970404.915735896</v>
       </c>
       <c r="AF8" t="n">
         <v>2.788249214400612e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.64583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4964740.588914965</v>
+        <v>5400597.850093763</v>
       </c>
     </row>
   </sheetData>
@@ -15762,28 +15762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6976.405028527897</v>
+        <v>7474.517835391054</v>
       </c>
       <c r="AB2" t="n">
-        <v>9545.425137300443</v>
+        <v>10226.96505483676</v>
       </c>
       <c r="AC2" t="n">
-        <v>8634.42315928445</v>
+        <v>9250.91786363836</v>
       </c>
       <c r="AD2" t="n">
-        <v>6976405.028527897</v>
+        <v>7474517.835391054</v>
       </c>
       <c r="AE2" t="n">
-        <v>9545425.137300443</v>
+        <v>10226965.05483676</v>
       </c>
       <c r="AF2" t="n">
         <v>2.230095977564662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>8634423.15928445</v>
+        <v>9250917.86363836</v>
       </c>
     </row>
     <row r="3">
@@ -15868,28 +15868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4414.403338408034</v>
+        <v>4799.671790458507</v>
       </c>
       <c r="AB3" t="n">
-        <v>6039.981397340762</v>
+        <v>6567.122690280777</v>
       </c>
       <c r="AC3" t="n">
-        <v>5463.534049945465</v>
+        <v>5940.365717734715</v>
       </c>
       <c r="AD3" t="n">
-        <v>4414403.338408034</v>
+        <v>4799671.790458507</v>
       </c>
       <c r="AE3" t="n">
-        <v>6039981.397340761</v>
+        <v>6567122.690280776</v>
       </c>
       <c r="AF3" t="n">
         <v>2.866253886588851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5463534.049945465</v>
+        <v>5940365.717734715</v>
       </c>
     </row>
     <row r="4">
@@ -15974,28 +15974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3746.949577599812</v>
+        <v>4104.116714770829</v>
       </c>
       <c r="AB4" t="n">
-        <v>5126.741715821166</v>
+        <v>5615.433550000592</v>
       </c>
       <c r="AC4" t="n">
-        <v>4637.45268189019</v>
+        <v>5079.504453298809</v>
       </c>
       <c r="AD4" t="n">
-        <v>3746949.577599812</v>
+        <v>4104116.714770829</v>
       </c>
       <c r="AE4" t="n">
-        <v>5126741.715821166</v>
+        <v>5615433.550000592</v>
       </c>
       <c r="AF4" t="n">
         <v>3.080487012764092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4637452.68189019</v>
+        <v>5079504.45329881</v>
       </c>
     </row>
     <row r="5">
@@ -16080,28 +16080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3674.586737964649</v>
+        <v>4022.319787378096</v>
       </c>
       <c r="AB5" t="n">
-        <v>5027.731686209157</v>
+        <v>5503.515385316095</v>
       </c>
       <c r="AC5" t="n">
-        <v>4547.892030542905</v>
+        <v>4978.267601173676</v>
       </c>
       <c r="AD5" t="n">
-        <v>3674586.737964649</v>
+        <v>4022319.787378096</v>
       </c>
       <c r="AE5" t="n">
-        <v>5027731.686209156</v>
+        <v>5503515.385316095</v>
       </c>
       <c r="AF5" t="n">
         <v>3.108288258145612e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.07083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4547892.030542905</v>
+        <v>4978267.601173676</v>
       </c>
     </row>
   </sheetData>
@@ -29470,28 +29470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5209.417073246132</v>
+        <v>5646.661891230525</v>
       </c>
       <c r="AB2" t="n">
-        <v>7127.754262876925</v>
+        <v>7726.011912723164</v>
       </c>
       <c r="AC2" t="n">
-        <v>6447.491399893622</v>
+        <v>6988.652179298397</v>
       </c>
       <c r="AD2" t="n">
-        <v>5209417.073246132</v>
+        <v>5646661.891230525</v>
       </c>
       <c r="AE2" t="n">
-        <v>7127754.262876925</v>
+        <v>7726011.912723164</v>
       </c>
       <c r="AF2" t="n">
         <v>2.767737331045528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.16250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>6447491.399893622</v>
+        <v>6988652.179298397</v>
       </c>
     </row>
     <row r="3">
@@ -29576,28 +29576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3533.773984616377</v>
+        <v>3896.638383067256</v>
       </c>
       <c r="AB3" t="n">
-        <v>4835.065464857799</v>
+        <v>5331.552543265759</v>
       </c>
       <c r="AC3" t="n">
-        <v>4373.613602948587</v>
+        <v>4822.716651417266</v>
       </c>
       <c r="AD3" t="n">
-        <v>3533773.984616377</v>
+        <v>3896638.383067256</v>
       </c>
       <c r="AE3" t="n">
-        <v>4835065.464857799</v>
+        <v>5331552.543265759</v>
       </c>
       <c r="AF3" t="n">
         <v>3.364628261762048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.81666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>4373613.602948587</v>
+        <v>4822716.651417266</v>
       </c>
     </row>
     <row r="4">
@@ -29682,28 +29682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3444.936109819151</v>
+        <v>3807.76634285125</v>
       </c>
       <c r="AB4" t="n">
-        <v>4713.513565309798</v>
+        <v>5209.95389708451</v>
       </c>
       <c r="AC4" t="n">
-        <v>4263.66244609429</v>
+        <v>4712.723209362787</v>
       </c>
       <c r="AD4" t="n">
-        <v>3444936.109819151</v>
+        <v>3807766.34285125</v>
       </c>
       <c r="AE4" t="n">
-        <v>4713513.565309797</v>
+        <v>5209953.89708451</v>
       </c>
       <c r="AF4" t="n">
         <v>3.406257577955611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4263662.44609429</v>
+        <v>4712723.209362787</v>
       </c>
     </row>
   </sheetData>
@@ -29979,28 +29979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3093.173222680402</v>
+        <v>3475.981621027073</v>
       </c>
       <c r="AB2" t="n">
-        <v>4232.216064443208</v>
+        <v>4755.991403375769</v>
       </c>
       <c r="AC2" t="n">
-        <v>3828.299303205141</v>
+        <v>4302.086258913265</v>
       </c>
       <c r="AD2" t="n">
-        <v>3093173.222680402</v>
+        <v>3475981.621027073</v>
       </c>
       <c r="AE2" t="n">
-        <v>4232216.064443208</v>
+        <v>4755991.403375769</v>
       </c>
       <c r="AF2" t="n">
         <v>4.093768691024174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3828299.303205141</v>
+        <v>4302086.258913265</v>
       </c>
     </row>
     <row r="3">
@@ -30085,28 +30085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3123.4750306638</v>
+        <v>3506.28342901047</v>
       </c>
       <c r="AB3" t="n">
-        <v>4273.676334947515</v>
+        <v>4797.451673880076</v>
       </c>
       <c r="AC3" t="n">
-        <v>3865.802663682371</v>
+        <v>4339.589619390495</v>
       </c>
       <c r="AD3" t="n">
-        <v>3123475.0306638</v>
+        <v>3506283.42901047</v>
       </c>
       <c r="AE3" t="n">
-        <v>4273676.334947515</v>
+        <v>4797451.673880076</v>
       </c>
       <c r="AF3" t="n">
         <v>4.096197746813943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3865802.663682371</v>
+        <v>4339589.619390494</v>
       </c>
     </row>
   </sheetData>
@@ -30382,28 +30382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14433.79318427814</v>
+        <v>15107.0538316693</v>
       </c>
       <c r="AB2" t="n">
-        <v>19748.95260874452</v>
+        <v>20670.13752866864</v>
       </c>
       <c r="AC2" t="n">
-        <v>17864.14028959426</v>
+        <v>18697.40861365195</v>
       </c>
       <c r="AD2" t="n">
-        <v>14433793.18427814</v>
+        <v>15107053.8316693</v>
       </c>
       <c r="AE2" t="n">
-        <v>19748952.60874452</v>
+        <v>20670137.52866864</v>
       </c>
       <c r="AF2" t="n">
         <v>1.321876861893335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>138</v>
+        <v>137.1041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>17864140.28959426</v>
+        <v>18697408.61365195</v>
       </c>
     </row>
     <row r="3">
@@ -30488,28 +30488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7033.971607129797</v>
+        <v>7476.375975326524</v>
       </c>
       <c r="AB3" t="n">
-        <v>9624.190269801777</v>
+        <v>10229.50744387182</v>
       </c>
       <c r="AC3" t="n">
-        <v>8705.67105808741</v>
+        <v>9253.217610632177</v>
       </c>
       <c r="AD3" t="n">
-        <v>7033971.607129797</v>
+        <v>7476375.975326524</v>
       </c>
       <c r="AE3" t="n">
-        <v>9624190.269801777</v>
+        <v>10229507.44387182</v>
       </c>
       <c r="AF3" t="n">
         <v>2.010000980193846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>91</v>
+        <v>90.16249999999998</v>
       </c>
       <c r="AH3" t="n">
-        <v>8705671.05808741</v>
+        <v>9253217.610632177</v>
       </c>
     </row>
     <row r="4">
@@ -30594,28 +30594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5741.662514143099</v>
+        <v>6135.964706378738</v>
       </c>
       <c r="AB4" t="n">
-        <v>7855.995956123843</v>
+        <v>8395.497610925693</v>
       </c>
       <c r="AC4" t="n">
-        <v>7106.23072803066</v>
+        <v>7594.24310209353</v>
       </c>
       <c r="AD4" t="n">
-        <v>5741662.514143099</v>
+        <v>6135964.706378737</v>
       </c>
       <c r="AE4" t="n">
-        <v>7855995.956123843</v>
+        <v>8395497.610925693</v>
       </c>
       <c r="AF4" t="n">
         <v>2.255759593872601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.33749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>7106230.72803066</v>
+        <v>7594243.10209353</v>
       </c>
     </row>
     <row r="5">
@@ -30700,19 +30700,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5151.278154079838</v>
+        <v>5535.958900093401</v>
       </c>
       <c r="AB5" t="n">
-        <v>7048.206028765504</v>
+        <v>7574.543196378061</v>
       </c>
       <c r="AC5" t="n">
-        <v>6375.535137599149</v>
+        <v>6851.639424653599</v>
       </c>
       <c r="AD5" t="n">
-        <v>5151278.154079838</v>
+        <v>5535958.900093401</v>
       </c>
       <c r="AE5" t="n">
-        <v>7048206.028765504</v>
+        <v>7574543.196378062</v>
       </c>
       <c r="AF5" t="n">
         <v>2.384511009180408e-06</v>
@@ -30721,7 +30721,7 @@
         <v>76</v>
       </c>
       <c r="AH5" t="n">
-        <v>6375535.13759915</v>
+        <v>6851639.424653599</v>
       </c>
     </row>
     <row r="6">
@@ -30806,28 +30806,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4791.030663270021</v>
+        <v>5156.538869736713</v>
       </c>
       <c r="AB6" t="n">
-        <v>6555.299518841863</v>
+        <v>7055.403972013637</v>
       </c>
       <c r="AC6" t="n">
-        <v>5929.670933184007</v>
+        <v>6382.046119246058</v>
       </c>
       <c r="AD6" t="n">
-        <v>4791030.663270021</v>
+        <v>5156538.869736713</v>
       </c>
       <c r="AE6" t="n">
-        <v>6555299.518841863</v>
+        <v>7055403.972013637</v>
       </c>
       <c r="AF6" t="n">
         <v>2.464545672750126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5929670.933184007</v>
+        <v>6382046.119246058</v>
       </c>
     </row>
     <row r="7">
@@ -30912,28 +30912,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4510.677908423218</v>
+        <v>4876.117784052349</v>
       </c>
       <c r="AB7" t="n">
-        <v>6171.708511369811</v>
+        <v>6671.71947127509</v>
       </c>
       <c r="AC7" t="n">
-        <v>5582.689313091741</v>
+        <v>6034.979928753432</v>
       </c>
       <c r="AD7" t="n">
-        <v>4510677.908423218</v>
+        <v>4876117.784052349</v>
       </c>
       <c r="AE7" t="n">
-        <v>6171708.511369811</v>
+        <v>6671719.471275089</v>
       </c>
       <c r="AF7" t="n">
         <v>2.518482076460154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.95833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>5582689.313091742</v>
+        <v>6034979.928753432</v>
       </c>
     </row>
     <row r="8">
@@ -31018,28 +31018,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4312.559941658133</v>
+        <v>4668.413547513826</v>
       </c>
       <c r="AB8" t="n">
-        <v>5900.634768893976</v>
+        <v>6387.529371578863</v>
       </c>
       <c r="AC8" t="n">
-        <v>5337.486468143424</v>
+        <v>5777.912533308914</v>
       </c>
       <c r="AD8" t="n">
-        <v>4312559.941658133</v>
+        <v>4668413.547513827</v>
       </c>
       <c r="AE8" t="n">
-        <v>5900634.768893976</v>
+        <v>6387529.371578863</v>
       </c>
       <c r="AF8" t="n">
         <v>2.553279756273075e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>71</v>
+        <v>70.97916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5337486.468143424</v>
+        <v>5777912.533308914</v>
       </c>
     </row>
     <row r="9">
@@ -31124,28 +31124,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4289.790094439633</v>
+        <v>4645.643700295326</v>
       </c>
       <c r="AB9" t="n">
-        <v>5869.480059394858</v>
+        <v>6356.374662079746</v>
       </c>
       <c r="AC9" t="n">
-        <v>5309.305120392993</v>
+        <v>5749.731185558484</v>
       </c>
       <c r="AD9" t="n">
-        <v>4289790.094439633</v>
+        <v>4645643.700295326</v>
       </c>
       <c r="AE9" t="n">
-        <v>5869480.059394858</v>
+        <v>6356374.662079746</v>
       </c>
       <c r="AF9" t="n">
         <v>2.559804321237998e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.80833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>5309305.120392993</v>
+        <v>5749731.185558484</v>
       </c>
     </row>
     <row r="10">
@@ -31230,28 +31230,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4308.988647058725</v>
+        <v>4664.84225291442</v>
       </c>
       <c r="AB10" t="n">
-        <v>5895.748366068668</v>
+        <v>6382.642968753556</v>
       </c>
       <c r="AC10" t="n">
-        <v>5333.066416745654</v>
+        <v>5773.492481911144</v>
       </c>
       <c r="AD10" t="n">
-        <v>4308988.647058725</v>
+        <v>4664842.25291442</v>
       </c>
       <c r="AE10" t="n">
-        <v>5895748.366068669</v>
+        <v>6382642.968753557</v>
       </c>
       <c r="AF10" t="n">
         <v>2.559369350240336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.80833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>5333066.416745654</v>
+        <v>5773492.481911144</v>
       </c>
     </row>
   </sheetData>
@@ -31527,28 +31527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23186.92943093501</v>
+        <v>24043.48821781388</v>
       </c>
       <c r="AB2" t="n">
-        <v>31725.37978253866</v>
+        <v>32897.36130345308</v>
       </c>
       <c r="AC2" t="n">
-        <v>28697.55406294201</v>
+        <v>29757.68331238671</v>
       </c>
       <c r="AD2" t="n">
-        <v>23186929.43093501</v>
+        <v>24043488.21781388</v>
       </c>
       <c r="AE2" t="n">
-        <v>31725379.78253866</v>
+        <v>32897361.30345308</v>
       </c>
       <c r="AF2" t="n">
         <v>9.570483497795586e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>172</v>
+        <v>171.1458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>28697554.06294201</v>
+        <v>29757683.31238671</v>
       </c>
     </row>
     <row r="3">
@@ -31633,28 +31633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9004.235772685939</v>
+        <v>9490.916561688669</v>
       </c>
       <c r="AB3" t="n">
-        <v>12319.99262303619</v>
+        <v>12985.89074939084</v>
       </c>
       <c r="AC3" t="n">
-        <v>11144.18981831139</v>
+        <v>11746.53556208062</v>
       </c>
       <c r="AD3" t="n">
-        <v>9004235.772685939</v>
+        <v>9490916.561688669</v>
       </c>
       <c r="AE3" t="n">
-        <v>12319992.62303619</v>
+        <v>12985890.74939084</v>
       </c>
       <c r="AF3" t="n">
         <v>1.665696470786764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>99</v>
+        <v>98.31666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>11144189.81831139</v>
+        <v>11746535.56208062</v>
       </c>
     </row>
     <row r="4">
@@ -31739,28 +31739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>7073.37600325831</v>
+        <v>7491.936656129103</v>
       </c>
       <c r="AB4" t="n">
-        <v>9678.105102984076</v>
+        <v>10250.7982538347</v>
       </c>
       <c r="AC4" t="n">
-        <v>8754.440335260735</v>
+        <v>9272.476455574033</v>
       </c>
       <c r="AD4" t="n">
-        <v>7073376.003258309</v>
+        <v>7491936.656129102</v>
       </c>
       <c r="AE4" t="n">
-        <v>9678105.102984076</v>
+        <v>10250798.25383469</v>
       </c>
       <c r="AF4" t="n">
         <v>1.925101772985741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>86</v>
+        <v>85.06666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>8754440.335260736</v>
+        <v>9272476.455574034</v>
       </c>
     </row>
     <row r="5">
@@ -31845,28 +31845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>6274.414896341522</v>
+        <v>6673.434560788833</v>
       </c>
       <c r="AB5" t="n">
-        <v>8584.931268824086</v>
+        <v>9130.887577226129</v>
       </c>
       <c r="AC5" t="n">
-        <v>7765.597477553902</v>
+        <v>8259.448482136524</v>
       </c>
       <c r="AD5" t="n">
-        <v>6274414.896341522</v>
+        <v>6673434.560788833</v>
       </c>
       <c r="AE5" t="n">
-        <v>8584931.268824086</v>
+        <v>9130887.577226128</v>
       </c>
       <c r="AF5" t="n">
         <v>2.061879114145201e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>79.42916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>7765597.477553901</v>
+        <v>8259448.482136524</v>
       </c>
     </row>
     <row r="6">
@@ -31951,28 +31951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5814.893932010204</v>
+        <v>6194.475104290374</v>
       </c>
       <c r="AB6" t="n">
-        <v>7956.194412791761</v>
+        <v>8475.554118644975</v>
       </c>
       <c r="AC6" t="n">
-        <v>7196.866384623608</v>
+        <v>7666.659129076094</v>
       </c>
       <c r="AD6" t="n">
-        <v>5814893.932010204</v>
+        <v>6194475.104290375</v>
       </c>
       <c r="AE6" t="n">
-        <v>7956194.412791762</v>
+        <v>8475554.118644975</v>
       </c>
       <c r="AF6" t="n">
         <v>2.147954509874861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>77</v>
+        <v>76.24583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>7196866.384623608</v>
+        <v>7666659.129076094</v>
       </c>
     </row>
     <row r="7">
@@ -32057,28 +32057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5506.785703259637</v>
+        <v>5876.630546746848</v>
       </c>
       <c r="AB7" t="n">
-        <v>7534.627141439492</v>
+        <v>8040.665172701664</v>
       </c>
       <c r="AC7" t="n">
-        <v>6815.532901975831</v>
+        <v>7273.27537376316</v>
       </c>
       <c r="AD7" t="n">
-        <v>5506785.703259637</v>
+        <v>5876630.546746848</v>
       </c>
       <c r="AE7" t="n">
-        <v>7534627.141439492</v>
+        <v>8040665.172701664</v>
       </c>
       <c r="AF7" t="n">
         <v>2.205338107027969e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.25833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>6815532.901975831</v>
+        <v>7273275.37376316</v>
       </c>
     </row>
     <row r="8">
@@ -32163,28 +32163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>5256.993641350164</v>
+        <v>5626.871639226299</v>
       </c>
       <c r="AB8" t="n">
-        <v>7192.850622286915</v>
+        <v>7698.934016846682</v>
       </c>
       <c r="AC8" t="n">
-        <v>6506.375054124833</v>
+        <v>6964.158559800301</v>
       </c>
       <c r="AD8" t="n">
-        <v>5256993.641350164</v>
+        <v>5626871.639226299</v>
       </c>
       <c r="AE8" t="n">
-        <v>7192850.622286916</v>
+        <v>7698934.016846682</v>
       </c>
       <c r="AF8" t="n">
         <v>2.248965362397797e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.81666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>6506375.054124833</v>
+        <v>6964158.559800301</v>
       </c>
     </row>
     <row r="9">
@@ -32269,28 +32269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>5061.777694714135</v>
+        <v>5421.953529216089</v>
       </c>
       <c r="AB9" t="n">
-        <v>6925.747551779745</v>
+        <v>7418.556018381719</v>
       </c>
       <c r="AC9" t="n">
-        <v>6264.763925785362</v>
+        <v>6710.539443995853</v>
       </c>
       <c r="AD9" t="n">
-        <v>5061777.694714135</v>
+        <v>5421953.529216089</v>
       </c>
       <c r="AE9" t="n">
-        <v>6925747.551779745</v>
+        <v>7418556.018381719</v>
       </c>
       <c r="AF9" t="n">
         <v>2.280801467667671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.79583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>6264763.925785362</v>
+        <v>6710539.443995853</v>
       </c>
     </row>
     <row r="10">
@@ -32375,28 +32375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4881.236042585189</v>
+        <v>5241.377711668364</v>
       </c>
       <c r="AB10" t="n">
-        <v>6678.722498401354</v>
+        <v>7171.48421837008</v>
       </c>
       <c r="AC10" t="n">
-        <v>6041.314596799576</v>
+        <v>6487.047829809885</v>
       </c>
       <c r="AD10" t="n">
-        <v>4881236.042585189</v>
+        <v>5241377.711668364</v>
       </c>
       <c r="AE10" t="n">
-        <v>6678722.498401354</v>
+        <v>7171484.21837008</v>
       </c>
       <c r="AF10" t="n">
         <v>2.307135036224234e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.97916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>6041314.596799576</v>
+        <v>6487047.829809885</v>
       </c>
     </row>
     <row r="11">
@@ -32481,28 +32481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4745.982152150014</v>
+        <v>5096.354338051306</v>
       </c>
       <c r="AB11" t="n">
-        <v>6493.66215852742</v>
+        <v>6973.056840607512</v>
       </c>
       <c r="AC11" t="n">
-        <v>5873.916156029399</v>
+        <v>6307.55808248641</v>
       </c>
       <c r="AD11" t="n">
-        <v>4745982.152150014</v>
+        <v>5096354.338051305</v>
       </c>
       <c r="AE11" t="n">
-        <v>6493662.15852742</v>
+        <v>6973056.840607512</v>
       </c>
       <c r="AF11" t="n">
         <v>2.325214799710829e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.425</v>
       </c>
       <c r="AH11" t="n">
-        <v>5873916.156029399</v>
+        <v>6307558.08248641</v>
       </c>
     </row>
     <row r="12">
@@ -32587,28 +32587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4694.233477068523</v>
+        <v>5044.605662969813</v>
       </c>
       <c r="AB12" t="n">
-        <v>6422.857338290499</v>
+        <v>6902.252020370593</v>
       </c>
       <c r="AC12" t="n">
-        <v>5809.868848460702</v>
+        <v>6243.510774917715</v>
       </c>
       <c r="AD12" t="n">
-        <v>4694233.477068523</v>
+        <v>5044605.662969814</v>
       </c>
       <c r="AE12" t="n">
-        <v>6422857.338290499</v>
+        <v>6902252.020370592</v>
       </c>
       <c r="AF12" t="n">
         <v>2.333075566444131e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.19166666666668</v>
       </c>
       <c r="AH12" t="n">
-        <v>5809868.848460702</v>
+        <v>6243510.774917715</v>
       </c>
     </row>
     <row r="13">
@@ -32693,28 +32693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4712.468610873473</v>
+        <v>5062.840796774763</v>
       </c>
       <c r="AB13" t="n">
-        <v>6447.807452839759</v>
+        <v>6927.202134919852</v>
       </c>
       <c r="AC13" t="n">
-        <v>5832.437759095086</v>
+        <v>6266.079685552098</v>
       </c>
       <c r="AD13" t="n">
-        <v>4712468.610873473</v>
+        <v>5062840.796774764</v>
       </c>
       <c r="AE13" t="n">
-        <v>6447807.452839759</v>
+        <v>6927202.134919852</v>
       </c>
       <c r="AF13" t="n">
         <v>2.332682528107466e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.20416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>5832437.759095086</v>
+        <v>6266079.685552099</v>
       </c>
     </row>
   </sheetData>
@@ -32990,28 +32990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3016.648615658376</v>
+        <v>3440.839093989195</v>
       </c>
       <c r="AB2" t="n">
-        <v>4127.511721088272</v>
+        <v>4707.907847503669</v>
       </c>
       <c r="AC2" t="n">
-        <v>3733.587795426534</v>
+        <v>4258.591730127904</v>
       </c>
       <c r="AD2" t="n">
-        <v>3016648.615658376</v>
+        <v>3440839.093989195</v>
       </c>
       <c r="AE2" t="n">
-        <v>4127511.721088272</v>
+        <v>4707907.84750367</v>
       </c>
       <c r="AF2" t="n">
         <v>4.390167907761005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.49583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3733587.795426534</v>
+        <v>4258591.730127905</v>
       </c>
     </row>
   </sheetData>
@@ -33287,28 +33287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7950.436582215199</v>
+        <v>8469.705018287157</v>
       </c>
       <c r="AB2" t="n">
-        <v>10878.13808029488</v>
+        <v>11588.62406303517</v>
       </c>
       <c r="AC2" t="n">
-        <v>9839.943849473808</v>
+        <v>10482.62204719468</v>
       </c>
       <c r="AD2" t="n">
-        <v>7950436.582215199</v>
+        <v>8469705.018287158</v>
       </c>
       <c r="AE2" t="n">
-        <v>10878138.08029488</v>
+        <v>11588624.06303517</v>
       </c>
       <c r="AF2" t="n">
         <v>2.025774917080362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>107</v>
+        <v>106.9083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9839943.849473808</v>
+        <v>10482622.04719468</v>
       </c>
     </row>
     <row r="3">
@@ -33393,28 +33393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4854.246655098768</v>
+        <v>5241.312592153378</v>
       </c>
       <c r="AB3" t="n">
-        <v>6641.794427754689</v>
+        <v>7171.395118976807</v>
       </c>
       <c r="AC3" t="n">
-        <v>6007.910889386556</v>
+        <v>6486.967233937655</v>
       </c>
       <c r="AD3" t="n">
-        <v>4854246.655098768</v>
+        <v>5241312.592153379</v>
       </c>
       <c r="AE3" t="n">
-        <v>6641794.427754689</v>
+        <v>7171395.118976807</v>
       </c>
       <c r="AF3" t="n">
         <v>2.671402950699508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>81.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6007910.889386556</v>
+        <v>6486967.233937655</v>
       </c>
     </row>
     <row r="4">
@@ -33499,28 +33499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4079.163190508516</v>
+        <v>4447.34190081224</v>
       </c>
       <c r="AB4" t="n">
-        <v>5581.291037233097</v>
+        <v>6085.049391569015</v>
       </c>
       <c r="AC4" t="n">
-        <v>5048.62045403053</v>
+        <v>5504.300818057898</v>
       </c>
       <c r="AD4" t="n">
-        <v>4079163.190508516</v>
+        <v>4447341.90081224</v>
       </c>
       <c r="AE4" t="n">
-        <v>5581291.037233097</v>
+        <v>6085049.391569015</v>
       </c>
       <c r="AF4" t="n">
         <v>2.899088199270511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5048620.45403053</v>
+        <v>5504300.818057898</v>
       </c>
     </row>
     <row r="5">
@@ -33605,28 +33605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3777.191074978617</v>
+        <v>4126.551900398874</v>
       </c>
       <c r="AB5" t="n">
-        <v>5168.119466695553</v>
+        <v>5646.130360747419</v>
       </c>
       <c r="AC5" t="n">
-        <v>4674.881398295162</v>
+        <v>5107.271603511204</v>
       </c>
       <c r="AD5" t="n">
-        <v>3777191.074978617</v>
+        <v>4126551.900398874</v>
       </c>
       <c r="AE5" t="n">
-        <v>5168119.466695553</v>
+        <v>5646130.360747419</v>
       </c>
       <c r="AF5" t="n">
         <v>2.985379868820252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.55416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4674881.398295162</v>
+        <v>5107271.603511204</v>
       </c>
     </row>
     <row r="6">
@@ -33711,28 +33711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3785.841287051757</v>
+        <v>4135.100627245529</v>
       </c>
       <c r="AB6" t="n">
-        <v>5179.955068474446</v>
+        <v>5657.827105962224</v>
       </c>
       <c r="AC6" t="n">
-        <v>4685.58742685165</v>
+        <v>5117.852027779191</v>
       </c>
       <c r="AD6" t="n">
-        <v>3785841.287051757</v>
+        <v>4135100.627245529</v>
       </c>
       <c r="AE6" t="n">
-        <v>5179955.068474446</v>
+        <v>5657827.105962224</v>
       </c>
       <c r="AF6" t="n">
         <v>2.988498844828074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4685587.42685165</v>
+        <v>5117852.027779192</v>
       </c>
     </row>
   </sheetData>
@@ -34008,28 +34008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11431.48193769073</v>
+        <v>12042.86194475943</v>
       </c>
       <c r="AB2" t="n">
-        <v>15641.05790853923</v>
+        <v>16477.57500639298</v>
       </c>
       <c r="AC2" t="n">
-        <v>14148.2972941103</v>
+        <v>14904.97837420398</v>
       </c>
       <c r="AD2" t="n">
-        <v>11431481.93769073</v>
+        <v>12042861.94475943</v>
       </c>
       <c r="AE2" t="n">
-        <v>15641057.90853923</v>
+        <v>16477575.00639298</v>
       </c>
       <c r="AF2" t="n">
         <v>1.557577132888597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>124</v>
+        <v>123.8083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>14148297.2941103</v>
+        <v>14904978.37420398</v>
       </c>
     </row>
     <row r="3">
@@ -34114,28 +34114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6142.451437696701</v>
+        <v>6572.220113924373</v>
       </c>
       <c r="AB3" t="n">
-        <v>8404.37304288932</v>
+        <v>8992.401505759915</v>
       </c>
       <c r="AC3" t="n">
-        <v>7602.271475287294</v>
+        <v>8134.17932696463</v>
       </c>
       <c r="AD3" t="n">
-        <v>6142451.437696701</v>
+        <v>6572220.113924373</v>
       </c>
       <c r="AE3" t="n">
-        <v>8404373.042889319</v>
+        <v>8992401.505759915</v>
       </c>
       <c r="AF3" t="n">
         <v>2.230135698739157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.47500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>7602271.475287294</v>
+        <v>8134179.32696463</v>
       </c>
     </row>
     <row r="4">
@@ -34220,28 +34220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5091.62003558455</v>
+        <v>5473.682302904173</v>
       </c>
       <c r="AB4" t="n">
-        <v>6966.579159109814</v>
+        <v>7489.333608654189</v>
       </c>
       <c r="AC4" t="n">
-        <v>6301.698621819369</v>
+        <v>6774.562120389689</v>
       </c>
       <c r="AD4" t="n">
-        <v>5091620.03558455</v>
+        <v>5473682.302904173</v>
       </c>
       <c r="AE4" t="n">
-        <v>6966579.159109814</v>
+        <v>7489333.60865419</v>
       </c>
       <c r="AF4" t="n">
         <v>2.470368249101469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>6301698.621819369</v>
+        <v>6774562.120389689</v>
       </c>
     </row>
     <row r="5">
@@ -34326,28 +34326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4579.04271931279</v>
+        <v>4941.995090734167</v>
       </c>
       <c r="AB5" t="n">
-        <v>6265.248261671522</v>
+        <v>6761.855708578813</v>
       </c>
       <c r="AC5" t="n">
-        <v>5667.301760908519</v>
+        <v>6116.513690075889</v>
       </c>
       <c r="AD5" t="n">
-        <v>4579042.71931279</v>
+        <v>4941995.090734167</v>
       </c>
       <c r="AE5" t="n">
-        <v>6265248.261671523</v>
+        <v>6761855.708578814</v>
       </c>
       <c r="AF5" t="n">
         <v>2.595344720388221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>5667301.760908519</v>
+        <v>6116513.690075889</v>
       </c>
     </row>
     <row r="6">
@@ -34432,28 +34432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4244.321752383495</v>
+        <v>4597.719175855749</v>
       </c>
       <c r="AB6" t="n">
-        <v>5807.268267871967</v>
+        <v>6290.802213460714</v>
       </c>
       <c r="AC6" t="n">
-        <v>5253.030734938251</v>
+        <v>5690.416879404145</v>
       </c>
       <c r="AD6" t="n">
-        <v>4244321.752383495</v>
+        <v>4597719.175855749</v>
       </c>
       <c r="AE6" t="n">
-        <v>5807268.267871967</v>
+        <v>6290802.213460715</v>
       </c>
       <c r="AF6" t="n">
         <v>2.671256354799434e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>5253030.734938251</v>
+        <v>5690416.879404145</v>
       </c>
     </row>
     <row r="7">
@@ -34538,28 +34538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4090.486683399644</v>
+        <v>4443.849941453119</v>
       </c>
       <c r="AB7" t="n">
-        <v>5596.78433976399</v>
+        <v>6080.27153871949</v>
       </c>
       <c r="AC7" t="n">
-        <v>5062.635097512858</v>
+        <v>5499.978956778573</v>
       </c>
       <c r="AD7" t="n">
-        <v>4090486.683399644</v>
+        <v>4443849.941453119</v>
       </c>
       <c r="AE7" t="n">
-        <v>5596784.33976399</v>
+        <v>6080271.53871949</v>
       </c>
       <c r="AF7" t="n">
         <v>2.703194786350493e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.35000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>5062635.097512858</v>
+        <v>5499978.956778573</v>
       </c>
     </row>
     <row r="8">
@@ -34644,28 +34644,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4100.27040530399</v>
+        <v>4453.633663357465</v>
       </c>
       <c r="AB8" t="n">
-        <v>5610.170859700864</v>
+        <v>6093.658058656365</v>
       </c>
       <c r="AC8" t="n">
-        <v>5074.744026775055</v>
+        <v>5512.087886040771</v>
       </c>
       <c r="AD8" t="n">
-        <v>4100270.40530399</v>
+        <v>4453633.663357465</v>
       </c>
       <c r="AE8" t="n">
-        <v>5610170.859700864</v>
+        <v>6093658.058656365</v>
       </c>
       <c r="AF8" t="n">
         <v>2.705046289628815e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.30416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>5074744.026775056</v>
+        <v>5512087.886040771</v>
       </c>
     </row>
   </sheetData>
